--- a/AAII_Financials/Quarterly/ABMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABMC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/ABMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABMC_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,131 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
         <v>900</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1000</v>
       </c>
       <c r="F8" s="3">
         <v>900</v>
       </c>
       <c r="G8" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H8" s="3">
         <v>900</v>
       </c>
       <c r="I8" s="3">
+        <v>900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>900</v>
+      </c>
+      <c r="K8" s="3">
         <v>1100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -787,28 +800,28 @@
         <v>700</v>
       </c>
       <c r="F9" s="3">
+        <v>500</v>
+      </c>
+      <c r="G9" s="3">
+        <v>700</v>
+      </c>
+      <c r="H9" s="3">
         <v>600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>500</v>
-      </c>
-      <c r="I9" s="3">
-        <v>600</v>
-      </c>
-      <c r="J9" s="3">
-        <v>700</v>
       </c>
       <c r="K9" s="3">
         <v>600</v>
       </c>
       <c r="L9" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M9" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N9" s="3">
         <v>800</v>
@@ -817,54 +830,66 @@
         <v>700</v>
       </c>
       <c r="P9" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>700</v>
+      </c>
+      <c r="R9" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,10 +950,16 @@
         <v>0</v>
       </c>
       <c r="P12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1123,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1084,84 +1137,96 @@
         <v>1100</v>
       </c>
       <c r="F17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1400</v>
       </c>
       <c r="O17" s="3">
         <v>1300</v>
       </c>
       <c r="P17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R17" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1187,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1202,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1220,54 +1287,66 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
         <v>0</v>
       </c>
       <c r="O21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1308,54 +1387,66 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-100</v>
-      </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
       <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-100</v>
-      </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-200</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-100</v>
-      </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1715,13 +1854,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1730,13 +1869,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -1748,54 +1887,66 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-200</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-100</v>
-      </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-200</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-100</v>
-      </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1967,19 +2138,21 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
@@ -1994,25 +2167,31 @@
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2055,81 +2234,93 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E43" s="3">
         <v>400</v>
       </c>
       <c r="F43" s="3">
+        <v>500</v>
+      </c>
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
-        <v>500</v>
-      </c>
       <c r="H43" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I43" s="3">
         <v>500</v>
       </c>
       <c r="J43" s="3">
+        <v>500</v>
+      </c>
+      <c r="K43" s="3">
+        <v>500</v>
+      </c>
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E44" s="3">
         <v>800</v>
       </c>
       <c r="F44" s="3">
+        <v>900</v>
+      </c>
+      <c r="G44" s="3">
+        <v>800</v>
+      </c>
+      <c r="H44" s="3">
         <v>1000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1400</v>
-      </c>
-      <c r="K44" s="3">
-        <v>1500</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1500</v>
       </c>
       <c r="M44" s="3">
         <v>1500</v>
@@ -2138,18 +2329,24 @@
         <v>1500</v>
       </c>
       <c r="O44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2161,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2170,16 +2367,16 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -2187,52 +2384,64 @@
       <c r="P45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F46" s="3">
         <v>1400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2275,8 +2484,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -2296,10 +2511,10 @@
         <v>700</v>
       </c>
       <c r="I48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K48" s="3">
         <v>800</v>
@@ -2319,8 +2534,14 @@
       <c r="P48" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>800</v>
+      </c>
+      <c r="R48" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>100</v>
+      </c>
+      <c r="R49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -2484,10 +2723,10 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O52" s="3">
         <v>100</v>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+      <c r="R52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F54" s="3">
         <v>2200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2619,40 +2878,42 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>400</v>
       </c>
       <c r="H57" s="3">
         <v>500</v>
       </c>
       <c r="I57" s="3">
+        <v>400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>500</v>
+      </c>
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
@@ -2663,43 +2924,49 @@
       <c r="P57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
         <v>1500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>700</v>
-      </c>
-      <c r="K58" s="3">
-        <v>500</v>
       </c>
       <c r="L58" s="3">
         <v>700</v>
       </c>
       <c r="M58" s="3">
+        <v>500</v>
+      </c>
+      <c r="N58" s="3">
         <v>700</v>
-      </c>
-      <c r="N58" s="3">
-        <v>800</v>
       </c>
       <c r="O58" s="3">
         <v>700</v>
@@ -2707,96 +2974,114 @@
       <c r="P58" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>700</v>
+      </c>
+      <c r="R58" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
-      </c>
-      <c r="E59" s="3">
-        <v>600</v>
       </c>
       <c r="F59" s="3">
         <v>700</v>
       </c>
       <c r="G59" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H59" s="3">
         <v>700</v>
       </c>
       <c r="I59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K59" s="3">
         <v>600</v>
       </c>
       <c r="L59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N59" s="3">
         <v>500</v>
       </c>
       <c r="O59" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>600</v>
+      </c>
+      <c r="R59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F60" s="3">
         <v>2800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2000</v>
       </c>
       <c r="I60" s="3">
         <v>1800</v>
       </c>
       <c r="J60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
-        <v>1500</v>
-      </c>
       <c r="L60" s="3">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M60" s="3">
         <v>1500</v>
       </c>
       <c r="N60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -2804,61 +3089,67 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>700</v>
-      </c>
-      <c r="J61" s="3">
-        <v>700</v>
-      </c>
-      <c r="K61" s="3">
-        <v>800</v>
       </c>
       <c r="L61" s="3">
         <v>700</v>
       </c>
       <c r="M61" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N61" s="3">
         <v>700</v>
       </c>
       <c r="O61" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="P61" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>800</v>
+      </c>
+      <c r="R61" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
@@ -2874,17 +3165,23 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,19 +3324,25 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F66" s="3">
         <v>2800</v>
-      </c>
-      <c r="E66" s="3">
-        <v>2600</v>
-      </c>
-      <c r="F66" s="3">
-        <v>2700</v>
       </c>
       <c r="G66" s="3">
         <v>2600</v>
@@ -3036,31 +3351,37 @@
         <v>2700</v>
       </c>
       <c r="I66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K66" s="3">
         <v>2500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2200</v>
-      </c>
-      <c r="N66" s="3">
-        <v>2400</v>
-      </c>
-      <c r="O66" s="3">
-        <v>2300</v>
       </c>
       <c r="P66" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R66" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-22300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-22200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-22100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-21900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-21500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-21300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-21100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-20800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-20600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-20500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-20400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-20300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-20100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-400</v>
       </c>
-      <c r="G76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>100</v>
-      </c>
       <c r="I76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>100</v>
+      </c>
+      <c r="K76" s="3">
         <v>200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>600</v>
-      </c>
-      <c r="L76" s="3">
-        <v>900</v>
-      </c>
-      <c r="M76" s="3">
-        <v>900</v>
       </c>
       <c r="N76" s="3">
         <v>900</v>
       </c>
       <c r="O76" s="3">
+        <v>900</v>
+      </c>
+      <c r="P76" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q76" s="3">
         <v>1000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-200</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-100</v>
-      </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3670,10 +4067,16 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>400</v>
       </c>
       <c r="E89" s="3">
         <v>100</v>
       </c>
       <c r="F89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>100</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>100</v>
+      </c>
+      <c r="R89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3986,20 +4427,26 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="N91" s="3" t="s">
+      <c r="P91" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4333,28 +4824,28 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F100" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>-100</v>
@@ -4366,10 +4857,16 @@
         <v>-100</v>
       </c>
       <c r="P100" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,13 +4909,19 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>600</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -4427,33 +4930,39 @@
         <v>-100</v>
       </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>ABMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,153 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F8" s="3">
         <v>700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>900</v>
-      </c>
-      <c r="F8" s="3">
-        <v>900</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1000</v>
       </c>
       <c r="H8" s="3">
         <v>900</v>
       </c>
       <c r="I8" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="J8" s="3">
         <v>900</v>
       </c>
       <c r="K8" s="3">
+        <v>900</v>
+      </c>
+      <c r="L8" s="3">
+        <v>900</v>
+      </c>
+      <c r="M8" s="3">
         <v>1100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E9" s="3">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="F9" s="3">
         <v>500</v>
@@ -806,28 +820,28 @@
         <v>700</v>
       </c>
       <c r="H9" s="3">
+        <v>500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>700</v>
+      </c>
+      <c r="J9" s="3">
         <v>600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
-      </c>
-      <c r="K9" s="3">
-        <v>600</v>
-      </c>
-      <c r="L9" s="3">
-        <v>700</v>
       </c>
       <c r="M9" s="3">
         <v>600</v>
       </c>
       <c r="N9" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="O9" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="P9" s="3">
         <v>800</v>
@@ -836,60 +850,72 @@
         <v>700</v>
       </c>
       <c r="R9" s="3">
+        <v>800</v>
+      </c>
+      <c r="S9" s="3">
+        <v>700</v>
+      </c>
+      <c r="T9" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>600</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -956,10 +984,16 @@
         <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1042,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1058,8 +1098,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,16 +1177,18 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E17" s="3">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="F17" s="3">
         <v>1000</v>
@@ -1143,90 +1197,102 @@
         <v>1100</v>
       </c>
       <c r="H17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1400</v>
       </c>
       <c r="Q17" s="3">
         <v>1300</v>
       </c>
       <c r="R17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T17" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
-        <v>100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,8 +1311,10 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1260,13 +1328,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1275,13 +1343,13 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1293,68 +1361,80 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
       <c r="Q21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1393,60 +1473,72 @@
         <v>100</v>
       </c>
       <c r="R22" s="3">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
+        <v>100</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-100</v>
-      </c>
       <c r="H23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1495,8 +1587,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
       <c r="H26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
       <c r="H27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
       <c r="P27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1695,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1845,8 +1979,14 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1860,13 +2000,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1875,13 +2015,13 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -1893,60 +2033,72 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
       <c r="H33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
       <c r="P33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1995,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
       <c r="H35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
       <c r="P35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2140,25 +2312,27 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
@@ -2173,25 +2347,31 @@
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2240,8 +2420,14 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
@@ -2252,81 +2438,87 @@
         <v>400</v>
       </c>
       <c r="F43" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G43" s="3">
         <v>400</v>
       </c>
       <c r="H43" s="3">
+        <v>500</v>
+      </c>
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
-        <v>500</v>
-      </c>
       <c r="J43" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K43" s="3">
         <v>500</v>
       </c>
       <c r="L43" s="3">
+        <v>500</v>
+      </c>
+      <c r="M43" s="3">
+        <v>500</v>
+      </c>
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E44" s="3">
         <v>800</v>
       </c>
       <c r="F44" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="G44" s="3">
         <v>800</v>
       </c>
       <c r="H44" s="3">
+        <v>900</v>
+      </c>
+      <c r="I44" s="3">
+        <v>800</v>
+      </c>
+      <c r="J44" s="3">
         <v>1000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1400</v>
-      </c>
-      <c r="M44" s="3">
-        <v>1500</v>
-      </c>
-      <c r="N44" s="3">
-        <v>1500</v>
       </c>
       <c r="O44" s="3">
         <v>1500</v>
@@ -2335,25 +2527,31 @@
         <v>1500</v>
       </c>
       <c r="Q44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S44" s="3">
         <v>1600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
@@ -2364,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2373,16 +2571,16 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -2390,58 +2588,70 @@
       <c r="R45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F46" s="3">
         <v>2000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2490,13 +2700,19 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
         <v>700</v>
@@ -2517,10 +2733,10 @@
         <v>700</v>
       </c>
       <c r="K48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M48" s="3">
         <v>800</v>
@@ -2540,8 +2756,14 @@
       <c r="R48" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>800</v>
+      </c>
+      <c r="T48" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -2590,8 +2812,14 @@
       <c r="R49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>100</v>
+      </c>
+      <c r="T49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2690,8 +2924,14 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -2729,10 +2969,10 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
         <v>100</v>
@@ -2740,8 +2980,14 @@
       <c r="R52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>100</v>
+      </c>
+      <c r="T52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2790,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F54" s="3">
         <v>2800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2880,46 +3140,48 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>600</v>
+      </c>
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>500</v>
       </c>
       <c r="K57" s="3">
+        <v>400</v>
+      </c>
+      <c r="L57" s="3">
+        <v>500</v>
+      </c>
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
@@ -2930,49 +3192,55 @@
       <c r="R57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>300</v>
+      </c>
+      <c r="T57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F58" s="3">
         <v>1400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>800</v>
-      </c>
-      <c r="L58" s="3">
-        <v>700</v>
-      </c>
-      <c r="M58" s="3">
-        <v>500</v>
       </c>
       <c r="N58" s="3">
         <v>700</v>
       </c>
       <c r="O58" s="3">
+        <v>500</v>
+      </c>
+      <c r="P58" s="3">
         <v>700</v>
-      </c>
-      <c r="P58" s="3">
-        <v>800</v>
       </c>
       <c r="Q58" s="3">
         <v>700</v>
@@ -2980,108 +3248,126 @@
       <c r="R58" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>700</v>
+      </c>
+      <c r="T58" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
-      </c>
-      <c r="F59" s="3">
-        <v>700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>600</v>
       </c>
       <c r="H59" s="3">
         <v>700</v>
       </c>
       <c r="I59" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J59" s="3">
         <v>700</v>
       </c>
       <c r="K59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M59" s="3">
         <v>600</v>
       </c>
       <c r="N59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P59" s="3">
         <v>500</v>
       </c>
       <c r="Q59" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="R59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>600</v>
+      </c>
+      <c r="T59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F60" s="3">
         <v>3600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2000</v>
       </c>
       <c r="K60" s="3">
         <v>1800</v>
       </c>
       <c r="L60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M60" s="3">
         <v>1800</v>
       </c>
-      <c r="M60" s="3">
-        <v>1500</v>
-      </c>
       <c r="N60" s="3">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="O60" s="3">
         <v>1500</v>
       </c>
       <c r="P60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R60" s="3">
         <v>1700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -3089,73 +3375,79 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>1100</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>700</v>
-      </c>
-      <c r="L61" s="3">
-        <v>700</v>
-      </c>
-      <c r="M61" s="3">
-        <v>800</v>
       </c>
       <c r="N61" s="3">
         <v>700</v>
       </c>
       <c r="O61" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="P61" s="3">
         <v>700</v>
       </c>
       <c r="Q61" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="R61" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>800</v>
+      </c>
+      <c r="T61" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
@@ -3171,17 +3463,23 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,25 +3640,31 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F66" s="3">
         <v>3700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2800</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2700</v>
       </c>
       <c r="I66" s="3">
         <v>2600</v>
@@ -3357,31 +3673,37 @@
         <v>2700</v>
       </c>
       <c r="K66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M66" s="3">
         <v>2500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2200</v>
-      </c>
-      <c r="P66" s="3">
-        <v>2400</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>2300</v>
       </c>
       <c r="R66" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="T66" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-22900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="G72" s="3">
         <v>-22600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-22300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-22200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-22100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-21900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-21500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-21300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-21100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-20800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-20600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-20500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-20400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-20300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-20100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G76" s="3">
         <v>-800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-400</v>
       </c>
-      <c r="I76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J76" s="3">
-        <v>100</v>
-      </c>
       <c r="K76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L76" s="3">
+        <v>100</v>
+      </c>
+      <c r="M76" s="3">
         <v>200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>600</v>
-      </c>
-      <c r="N76" s="3">
-        <v>900</v>
-      </c>
-      <c r="O76" s="3">
-        <v>900</v>
       </c>
       <c r="P76" s="3">
         <v>900</v>
       </c>
       <c r="Q76" s="3">
+        <v>900</v>
+      </c>
+      <c r="R76" s="3">
+        <v>900</v>
+      </c>
+      <c r="S76" s="3">
         <v>1000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
       <c r="H81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
       <c r="P81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4421,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4073,10 +4471,16 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4753,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
-      </c>
       <c r="G89" s="3">
         <v>100</v>
       </c>
       <c r="H89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>100</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>100</v>
+      </c>
+      <c r="T89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4835,10 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4433,20 +4875,26 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P91" s="3" t="s">
+      <c r="R91" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,16 +4999,22 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4595,8 +5055,14 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,43 +5301,49 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H100" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>-100</v>
@@ -4863,10 +5355,16 @@
         <v>-100</v>
       </c>
       <c r="R100" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,20 +5413,26 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-100</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -4936,33 +5440,39 @@
         <v>-100</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>ABMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,159 +665,172 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>800</v>
+      </c>
+      <c r="F8" s="3">
         <v>900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>900</v>
-      </c>
-      <c r="H8" s="3">
-        <v>900</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1000</v>
       </c>
       <c r="J8" s="3">
         <v>900</v>
       </c>
       <c r="K8" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L8" s="3">
         <v>900</v>
       </c>
       <c r="M8" s="3">
+        <v>900</v>
+      </c>
+      <c r="N8" s="3">
+        <v>900</v>
+      </c>
+      <c r="O8" s="3">
         <v>1100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>500</v>
+      </c>
+      <c r="F9" s="3">
         <v>600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1200</v>
-      </c>
-      <c r="F9" s="3">
-        <v>500</v>
-      </c>
-      <c r="G9" s="3">
-        <v>700</v>
       </c>
       <c r="H9" s="3">
         <v>500</v>
@@ -826,28 +839,28 @@
         <v>700</v>
       </c>
       <c r="J9" s="3">
+        <v>500</v>
+      </c>
+      <c r="K9" s="3">
+        <v>700</v>
+      </c>
+      <c r="L9" s="3">
         <v>600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>500</v>
-      </c>
-      <c r="M9" s="3">
-        <v>600</v>
-      </c>
-      <c r="N9" s="3">
-        <v>700</v>
       </c>
       <c r="O9" s="3">
         <v>600</v>
       </c>
       <c r="P9" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q9" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="R9" s="3">
         <v>800</v>
@@ -856,66 +869,78 @@
         <v>700</v>
       </c>
       <c r="T9" s="3">
+        <v>800</v>
+      </c>
+      <c r="U9" s="3">
+        <v>700</v>
+      </c>
+      <c r="V9" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
+        <v>300</v>
+      </c>
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -990,10 +1017,16 @@
         <v>0</v>
       </c>
       <c r="T12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,22 +1230,24 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1700</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1100</v>
       </c>
       <c r="H17" s="3">
         <v>1000</v>
@@ -1203,96 +1256,108 @@
         <v>1100</v>
       </c>
       <c r="J17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1300</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1400</v>
       </c>
       <c r="S17" s="3">
         <v>1300</v>
       </c>
       <c r="T17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V17" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="S18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,13 +1378,15 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1334,13 +1401,13 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1349,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1367,66 +1434,78 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
       <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
         <v>0</v>
       </c>
       <c r="S21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1437,10 +1516,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1479,66 +1558,78 @@
         <v>100</v>
       </c>
       <c r="T22" s="3">
+        <v>100</v>
+      </c>
+      <c r="U22" s="3">
+        <v>100</v>
+      </c>
+      <c r="V22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
       <c r="J23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-200</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
-      </c>
       <c r="R23" s="3">
         <v>-100</v>
       </c>
       <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
       <c r="J26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-200</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
-      </c>
       <c r="R26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
       <c r="J27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-200</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
-      </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1985,13 +2118,19 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2006,13 +2145,13 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -2021,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2039,66 +2178,78 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
       <c r="J33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-200</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
       <c r="R33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
       <c r="J35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-200</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
       <c r="R35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2314,8 +2485,10 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
@@ -2323,22 +2496,22 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
@@ -2353,25 +2526,31 @@
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2426,13 +2605,19 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
         <v>400</v>
@@ -2444,87 +2629,93 @@
         <v>400</v>
       </c>
       <c r="H43" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I43" s="3">
         <v>400</v>
       </c>
       <c r="J43" s="3">
+        <v>500</v>
+      </c>
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
-        <v>500</v>
-      </c>
       <c r="L43" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M43" s="3">
         <v>500</v>
       </c>
       <c r="N43" s="3">
+        <v>500</v>
+      </c>
+      <c r="O43" s="3">
+        <v>500</v>
+      </c>
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>500</v>
+      </c>
+      <c r="F44" s="3">
         <v>600</v>
-      </c>
-      <c r="E44" s="3">
-        <v>800</v>
-      </c>
-      <c r="F44" s="3">
-        <v>700</v>
       </c>
       <c r="G44" s="3">
         <v>800</v>
       </c>
       <c r="H44" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="I44" s="3">
         <v>800</v>
       </c>
       <c r="J44" s="3">
+        <v>900</v>
+      </c>
+      <c r="K44" s="3">
+        <v>800</v>
+      </c>
+      <c r="L44" s="3">
         <v>1000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1400</v>
-      </c>
-      <c r="O44" s="3">
-        <v>1500</v>
-      </c>
-      <c r="P44" s="3">
-        <v>1500</v>
       </c>
       <c r="Q44" s="3">
         <v>1500</v>
@@ -2533,13 +2724,19 @@
         <v>1500</v>
       </c>
       <c r="S44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U44" s="3">
         <v>1600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
@@ -2547,17 +2744,17 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -2568,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2577,16 +2774,16 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
@@ -2594,64 +2791,76 @@
       <c r="T45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F46" s="3">
         <v>1100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2706,8 +2915,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -2715,10 +2930,10 @@
         <v>600</v>
       </c>
       <c r="E48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G48" s="3">
         <v>700</v>
@@ -2739,10 +2954,10 @@
         <v>700</v>
       </c>
       <c r="M48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="O48" s="3">
         <v>800</v>
@@ -2762,8 +2977,14 @@
       <c r="T48" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>800</v>
+      </c>
+      <c r="V48" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>100</v>
+      </c>
+      <c r="V49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -2975,10 +3214,10 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S52" s="3">
         <v>100</v>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>100</v>
+      </c>
+      <c r="V52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G54" s="3">
         <v>2300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3142,8 +3401,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
@@ -3154,40 +3415,40 @@
         <v>600</v>
       </c>
       <c r="F57" s="3">
+        <v>600</v>
+      </c>
+      <c r="G57" s="3">
+        <v>600</v>
+      </c>
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
-      </c>
-      <c r="J57" s="3">
-        <v>500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>500</v>
       </c>
       <c r="M57" s="3">
+        <v>400</v>
+      </c>
+      <c r="N57" s="3">
+        <v>500</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
-      </c>
-      <c r="P57" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
@@ -3198,55 +3459,61 @@
       <c r="T57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>300</v>
+      </c>
+      <c r="V57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>700</v>
+      </c>
+      <c r="F58" s="3">
         <v>1700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
-      </c>
-      <c r="N58" s="3">
-        <v>700</v>
-      </c>
-      <c r="O58" s="3">
-        <v>500</v>
       </c>
       <c r="P58" s="3">
         <v>700</v>
       </c>
       <c r="Q58" s="3">
+        <v>500</v>
+      </c>
+      <c r="R58" s="3">
         <v>700</v>
-      </c>
-      <c r="R58" s="3">
-        <v>800</v>
       </c>
       <c r="S58" s="3">
         <v>700</v>
@@ -3254,8 +3521,14 @@
       <c r="T58" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>700</v>
+      </c>
+      <c r="V58" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
@@ -3266,108 +3539,120 @@
         <v>800</v>
       </c>
       <c r="F59" s="3">
+        <v>700</v>
+      </c>
+      <c r="G59" s="3">
+        <v>800</v>
+      </c>
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>700</v>
-      </c>
-      <c r="I59" s="3">
-        <v>600</v>
       </c>
       <c r="J59" s="3">
         <v>700</v>
       </c>
       <c r="K59" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L59" s="3">
         <v>700</v>
       </c>
       <c r="M59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="O59" s="3">
         <v>600</v>
       </c>
       <c r="P59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R59" s="3">
         <v>500</v>
       </c>
       <c r="S59" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>600</v>
+      </c>
+      <c r="V59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2700</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1800</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2000</v>
       </c>
       <c r="M60" s="3">
         <v>1800</v>
       </c>
       <c r="N60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O60" s="3">
         <v>1800</v>
       </c>
-      <c r="O60" s="3">
-        <v>1500</v>
-      </c>
       <c r="P60" s="3">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="Q60" s="3">
         <v>1500</v>
       </c>
       <c r="R60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T60" s="3">
         <v>1700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -3375,55 +3660,61 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>1100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>700</v>
-      </c>
-      <c r="N61" s="3">
-        <v>700</v>
-      </c>
-      <c r="O61" s="3">
-        <v>800</v>
       </c>
       <c r="P61" s="3">
         <v>700</v>
       </c>
       <c r="Q61" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="R61" s="3">
         <v>700</v>
       </c>
       <c r="S61" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T61" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>800</v>
+      </c>
+      <c r="V61" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -3431,29 +3722,29 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
@@ -3469,17 +3760,23 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,31 +3955,37 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="E66" s="3">
         <v>3200</v>
       </c>
       <c r="F66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H66" s="3">
         <v>3700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2700</v>
       </c>
       <c r="K66" s="3">
         <v>2600</v>
@@ -3679,31 +3994,37 @@
         <v>2700</v>
       </c>
       <c r="M66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="O66" s="3">
         <v>2500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2200</v>
-      </c>
-      <c r="R66" s="3">
-        <v>2400</v>
-      </c>
-      <c r="S66" s="3">
-        <v>2300</v>
       </c>
       <c r="T66" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="V66" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-23100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-22900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-22900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-22600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-22300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-22200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-22100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-21900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-21500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-21300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-21100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-20800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-20600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-20500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-20400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-20300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-20100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-400</v>
       </c>
-      <c r="K76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>100</v>
-      </c>
       <c r="M76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N76" s="3">
+        <v>100</v>
+      </c>
+      <c r="O76" s="3">
         <v>200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>600</v>
-      </c>
-      <c r="P76" s="3">
-        <v>900</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>900</v>
       </c>
       <c r="R76" s="3">
         <v>900</v>
       </c>
       <c r="S76" s="3">
+        <v>900</v>
+      </c>
+      <c r="T76" s="3">
+        <v>900</v>
+      </c>
+      <c r="U76" s="3">
         <v>1000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
       <c r="J81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-200</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
       <c r="R81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4477,10 +4874,16 @@
         <v>0</v>
       </c>
       <c r="T83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
-      </c>
       <c r="I89" s="3">
         <v>100</v>
       </c>
       <c r="J89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
-        <v>100</v>
-      </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>100</v>
+      </c>
+      <c r="V89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4881,20 +5322,26 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="R91" s="3" t="s">
+      <c r="T91" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,16 +5458,22 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>55</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,49 +5792,55 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
         <v>200</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J100" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>-100</v>
@@ -5361,10 +5852,16 @@
         <v>-100</v>
       </c>
       <c r="T100" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,26 +5916,32 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-100</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -5446,33 +5949,39 @@
         <v>-100</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>ABMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,129 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>900</v>
       </c>
       <c r="J8" s="3">
         <v>900</v>
       </c>
       <c r="K8" s="3">
+        <v>900</v>
+      </c>
+      <c r="L8" s="3">
         <v>1000</v>
-      </c>
-      <c r="L8" s="3">
-        <v>900</v>
       </c>
       <c r="M8" s="3">
         <v>900</v>
@@ -792,93 +796,99 @@
         <v>900</v>
       </c>
       <c r="O8" s="3">
+        <v>900</v>
+      </c>
+      <c r="P8" s="3">
         <v>1100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1400</v>
-      </c>
-      <c r="S8" s="3">
-        <v>1300</v>
       </c>
       <c r="T8" s="3">
         <v>1300</v>
       </c>
       <c r="U8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V8" s="3">
         <v>1200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E9" s="3">
         <v>500</v>
       </c>
       <c r="F9" s="3">
+        <v>500</v>
+      </c>
+      <c r="G9" s="3">
         <v>600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -886,61 +896,64 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>300</v>
       </c>
       <c r="G10" s="3">
+        <v>300</v>
+      </c>
+      <c r="H10" s="3">
         <v>600</v>
-      </c>
-      <c r="H10" s="3">
-        <v>200</v>
       </c>
       <c r="I10" s="3">
         <v>200</v>
       </c>
       <c r="J10" s="3">
+        <v>200</v>
+      </c>
+      <c r="K10" s="3">
         <v>400</v>
-      </c>
-      <c r="K10" s="3">
-        <v>300</v>
       </c>
       <c r="L10" s="3">
         <v>300</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>500</v>
-      </c>
-      <c r="P10" s="3">
-        <v>300</v>
       </c>
       <c r="Q10" s="3">
         <v>300</v>
       </c>
       <c r="R10" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="S10" s="3">
         <v>600</v>
       </c>
       <c r="T10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="U10" s="3">
         <v>500</v>
       </c>
       <c r="V10" s="3">
+        <v>500</v>
+      </c>
+      <c r="W10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1023,10 +1037,13 @@
         <v>0</v>
       </c>
       <c r="V12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,123 +1258,127 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>55</v>
+      <c r="D17" s="3">
+        <v>800</v>
       </c>
       <c r="E17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1100</v>
       </c>
       <c r="L17" s="3">
         <v>1100</v>
       </c>
       <c r="M17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1200</v>
       </c>
       <c r="Q17" s="3">
         <v>1200</v>
       </c>
       <c r="R17" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="S17" s="3">
         <v>1300</v>
       </c>
       <c r="T17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U17" s="3">
         <v>1400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>55</v>
+      <c r="D18" s="3">
+        <v>-300</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
       </c>
       <c r="G18" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
-        <v>-100</v>
-      </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
-        <v>100</v>
-      </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3">
         <v>-100</v>
@@ -1356,8 +1386,11 @@
       <c r="V18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,13 +1413,14 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>55</v>
+      <c r="D20" s="3">
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1407,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1422,10 +1456,10 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1440,57 +1474,60 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>55</v>
+      <c r="D21" s="3">
+        <v>-200</v>
       </c>
       <c r="E21" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="F21" s="3">
         <v>-200</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
-        <v>-100</v>
-      </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
-        <v>-100</v>
-      </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
         <v>-200</v>
       </c>
       <c r="R21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S21" s="3">
         <v>0</v>
@@ -1499,13 +1536,16 @@
         <v>0</v>
       </c>
       <c r="U21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1522,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1564,57 +1604,60 @@
         <v>100</v>
       </c>
       <c r="V22" s="3">
+        <v>100</v>
+      </c>
+      <c r="W22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-200</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
       <c r="P23" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>-300</v>
       </c>
       <c r="R23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
@@ -1623,13 +1666,16 @@
         <v>-100</v>
       </c>
       <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>55</v>
+      <c r="D26" s="3">
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
       <c r="P26" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>-300</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>55</v>
+      <c r="D27" s="3">
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="F27" s="3">
         <v>-200</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
       <c r="P27" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>-300</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2124,13 +2191,16 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>55</v>
+      <c r="D32" s="3">
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2151,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2166,10 +2236,10 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -2184,72 +2254,78 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>55</v>
+      <c r="D33" s="3">
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="F33" s="3">
         <v>-200</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
       <c r="P33" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>-300</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="S33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
       <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>55</v>
+      <c r="D35" s="3">
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="F35" s="3">
         <v>-200</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
       <c r="P35" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>-300</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="S35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
       <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2487,13 +2573,14 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -2502,19 +2589,19 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
@@ -2532,25 +2619,28 @@
         <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
-        <v>100</v>
-      </c>
       <c r="T41" s="3">
         <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2611,16 +2701,19 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
-      </c>
-      <c r="E43" s="3">
-        <v>400</v>
       </c>
       <c r="F43" s="3">
         <v>400</v>
@@ -2635,16 +2728,16 @@
         <v>400</v>
       </c>
       <c r="J43" s="3">
+        <v>400</v>
+      </c>
+      <c r="K43" s="3">
         <v>500</v>
-      </c>
-      <c r="K43" s="3">
-        <v>400</v>
       </c>
       <c r="L43" s="3">
         <v>400</v>
       </c>
       <c r="M43" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N43" s="3">
         <v>500</v>
@@ -2653,72 +2746,75 @@
         <v>500</v>
       </c>
       <c r="P43" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>300</v>
-      </c>
-      <c r="R43" s="3">
-        <v>500</v>
       </c>
       <c r="S43" s="3">
         <v>500</v>
       </c>
       <c r="T43" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="U43" s="3">
         <v>600</v>
       </c>
       <c r="V43" s="3">
+        <v>600</v>
+      </c>
+      <c r="W43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="E44" s="3">
         <v>500</v>
       </c>
       <c r="F44" s="3">
+        <v>500</v>
+      </c>
+      <c r="G44" s="3">
         <v>600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>800</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1000</v>
       </c>
       <c r="M44" s="3">
         <v>1000</v>
       </c>
       <c r="N44" s="3">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="O44" s="3">
         <v>1300</v>
       </c>
       <c r="P44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>1500</v>
       </c>
       <c r="R44" s="3">
         <v>1500</v>
@@ -2730,13 +2826,16 @@
         <v>1500</v>
       </c>
       <c r="U44" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="V44" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
@@ -2750,14 +2849,14 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
@@ -2771,22 +2870,22 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
@@ -2806,61 +2908,64 @@
         <v>1000</v>
       </c>
       <c r="E46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F46" s="3">
         <v>1200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1600</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1900</v>
       </c>
       <c r="O46" s="3">
         <v>1900</v>
       </c>
       <c r="P46" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="Q46" s="3">
         <v>2000</v>
       </c>
       <c r="R46" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="S46" s="3">
         <v>2200</v>
       </c>
       <c r="T46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U46" s="3">
         <v>2300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -2936,7 +3044,7 @@
         <v>600</v>
       </c>
       <c r="G48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H48" s="3">
         <v>700</v>
@@ -2960,7 +3068,7 @@
         <v>700</v>
       </c>
       <c r="O48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="P48" s="3">
         <v>800</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -3220,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T52" s="3">
         <v>100</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1800</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1900</v>
       </c>
       <c r="F54" s="3">
         <v>1900</v>
       </c>
       <c r="G54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H54" s="3">
         <v>2300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2100</v>
-      </c>
-      <c r="J54" s="3">
-        <v>2200</v>
       </c>
       <c r="K54" s="3">
         <v>2200</v>
       </c>
       <c r="L54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M54" s="3">
         <v>2300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2500</v>
-      </c>
-      <c r="N54" s="3">
-        <v>2800</v>
       </c>
       <c r="O54" s="3">
         <v>2800</v>
       </c>
       <c r="P54" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="Q54" s="3">
         <v>2900</v>
       </c>
       <c r="R54" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="S54" s="3">
         <v>3100</v>
       </c>
       <c r="T54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="U54" s="3">
         <v>3300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
@@ -3421,37 +3552,37 @@
         <v>600</v>
       </c>
       <c r="H57" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I57" s="3">
         <v>700</v>
       </c>
       <c r="J57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K57" s="3">
         <v>600</v>
       </c>
       <c r="L57" s="3">
+        <v>600</v>
+      </c>
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
-      </c>
-      <c r="P57" s="3">
-        <v>400</v>
       </c>
       <c r="Q57" s="3">
         <v>400</v>
       </c>
       <c r="R57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S57" s="3">
         <v>300</v>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -3474,90 +3608,93 @@
         <v>1900</v>
       </c>
       <c r="E58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F58" s="3">
         <v>700</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1700</v>
       </c>
       <c r="G58" s="3">
         <v>1700</v>
       </c>
       <c r="H58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I58" s="3">
         <v>1400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1500</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1400</v>
       </c>
       <c r="L58" s="3">
         <v>1400</v>
       </c>
       <c r="M58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N58" s="3">
         <v>700</v>
-      </c>
-      <c r="N58" s="3">
-        <v>800</v>
       </c>
       <c r="O58" s="3">
         <v>800</v>
       </c>
       <c r="P58" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q58" s="3">
         <v>700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>500</v>
-      </c>
-      <c r="R58" s="3">
-        <v>700</v>
       </c>
       <c r="S58" s="3">
         <v>700</v>
       </c>
       <c r="T58" s="3">
+        <v>700</v>
+      </c>
+      <c r="U58" s="3">
         <v>800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>700</v>
       </c>
       <c r="J59" s="3">
         <v>700</v>
       </c>
       <c r="K59" s="3">
+        <v>700</v>
+      </c>
+      <c r="L59" s="3">
         <v>600</v>
-      </c>
-      <c r="L59" s="3">
-        <v>700</v>
       </c>
       <c r="M59" s="3">
         <v>700</v>
@@ -3566,7 +3703,7 @@
         <v>700</v>
       </c>
       <c r="O59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P59" s="3">
         <v>600</v>
@@ -3575,7 +3712,7 @@
         <v>600</v>
       </c>
       <c r="R59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S59" s="3">
         <v>500</v>
@@ -3584,57 +3721,60 @@
         <v>500</v>
       </c>
       <c r="U59" s="3">
+        <v>500</v>
+      </c>
+      <c r="V59" s="3">
         <v>600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E60" s="3">
         <v>3200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2000</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1800</v>
       </c>
       <c r="P60" s="3">
         <v>1800</v>
       </c>
       <c r="Q60" s="3">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="R60" s="3">
         <v>1500</v>
@@ -3643,16 +3783,19 @@
         <v>1500</v>
       </c>
       <c r="T60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U60" s="3">
         <v>1700</v>
-      </c>
-      <c r="U60" s="3">
-        <v>1600</v>
       </c>
       <c r="V60" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -3660,11 +3803,11 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>1100</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3672,11 +3815,11 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>1100</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3684,22 +3827,22 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>800</v>
       </c>
       <c r="O61" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="P61" s="3">
         <v>700</v>
       </c>
       <c r="Q61" s="3">
+        <v>700</v>
+      </c>
+      <c r="R61" s="3">
         <v>800</v>
-      </c>
-      <c r="R61" s="3">
-        <v>700</v>
       </c>
       <c r="S61" s="3">
         <v>700</v>
@@ -3708,13 +3851,16 @@
         <v>700</v>
       </c>
       <c r="U61" s="3">
+        <v>700</v>
+      </c>
+      <c r="V61" s="3">
         <v>800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -3728,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
@@ -3737,17 +3883,17 @@
         <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
@@ -3766,17 +3912,20 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-      <c r="T62" s="3" t="s">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E66" s="3">
         <v>3200</v>
       </c>
       <c r="F66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G66" s="3">
         <v>3000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2700</v>
-      </c>
-      <c r="O66" s="3">
-        <v>2500</v>
       </c>
       <c r="P66" s="3">
         <v>2500</v>
       </c>
       <c r="Q66" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="R66" s="3">
         <v>2300</v>
       </c>
       <c r="S66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="T66" s="3">
         <v>2200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-23900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-23400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-23100</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-22900</v>
       </c>
       <c r="H72" s="3">
         <v>-22900</v>
       </c>
       <c r="I72" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="J72" s="3">
         <v>-22600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-22300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-22200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-22100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-21900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-21500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-21300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-20800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-20600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-20500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-20400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-20300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-20100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,55 +4726,58 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-900</v>
       </c>
       <c r="H76" s="3">
         <v>-900</v>
       </c>
       <c r="I76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J76" s="3">
         <v>-800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-600</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-400</v>
       </c>
       <c r="L76" s="3">
         <v>-400</v>
       </c>
       <c r="M76" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="N76" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O76" s="3">
+        <v>100</v>
+      </c>
+      <c r="P76" s="3">
         <v>200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>600</v>
-      </c>
-      <c r="R76" s="3">
-        <v>900</v>
       </c>
       <c r="S76" s="3">
         <v>900</v>
@@ -4600,13 +4786,16 @@
         <v>900</v>
       </c>
       <c r="U76" s="3">
+        <v>900</v>
+      </c>
+      <c r="V76" s="3">
         <v>1000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>55</v>
+      <c r="D81" s="3">
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="F81" s="3">
         <v>-200</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
       <c r="P81" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>-300</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="S81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
       <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4880,10 +5079,13 @@
         <v>0</v>
       </c>
       <c r="V83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>-100</v>
-      </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>100</v>
+      </c>
+      <c r="W89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5328,20 +5549,23 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>55</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5934,43 +6186,43 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
@@ -5979,9 +6231,12 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>ABMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,132 +665,136 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
-      </c>
-      <c r="J8" s="3">
-        <v>900</v>
       </c>
       <c r="K8" s="3">
         <v>900</v>
       </c>
       <c r="L8" s="3">
+        <v>900</v>
+      </c>
+      <c r="M8" s="3">
         <v>1000</v>
-      </c>
-      <c r="M8" s="3">
-        <v>900</v>
       </c>
       <c r="N8" s="3">
         <v>900</v>
@@ -799,31 +803,34 @@
         <v>900</v>
       </c>
       <c r="P8" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1400</v>
-      </c>
-      <c r="T8" s="3">
-        <v>1300</v>
       </c>
       <c r="U8" s="3">
         <v>1300</v>
       </c>
       <c r="V8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W8" s="3">
         <v>1200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -831,129 +838,135 @@
         <v>400</v>
       </c>
       <c r="E9" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F9" s="3">
         <v>500</v>
       </c>
       <c r="G9" s="3">
+        <v>500</v>
+      </c>
+      <c r="H9" s="3">
         <v>600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>300</v>
       </c>
       <c r="H10" s="3">
+        <v>300</v>
+      </c>
+      <c r="I10" s="3">
         <v>600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>200</v>
       </c>
       <c r="J10" s="3">
         <v>200</v>
       </c>
       <c r="K10" s="3">
+        <v>200</v>
+      </c>
+      <c r="L10" s="3">
         <v>400</v>
-      </c>
-      <c r="L10" s="3">
-        <v>300</v>
       </c>
       <c r="M10" s="3">
         <v>300</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>500</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>300</v>
       </c>
       <c r="R10" s="3">
         <v>300</v>
       </c>
       <c r="S10" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="T10" s="3">
         <v>600</v>
       </c>
       <c r="U10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="V10" s="3">
         <v>500</v>
       </c>
       <c r="W10" s="3">
+        <v>500</v>
+      </c>
+      <c r="X10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1040,10 +1054,13 @@
         <v>0</v>
       </c>
       <c r="W12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,31 +1124,34 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,129 +1285,133 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1100</v>
       </c>
       <c r="M17" s="3">
         <v>1100</v>
       </c>
       <c r="N17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1200</v>
       </c>
       <c r="R17" s="3">
         <v>1200</v>
       </c>
       <c r="S17" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="T17" s="3">
         <v>1300</v>
       </c>
       <c r="U17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V17" s="3">
         <v>1400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
       <c r="H18" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
-        <v>100</v>
-      </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V18" s="3">
         <v>-100</v>
@@ -1389,8 +1419,11 @@
       <c r="W18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1414,16 +1447,17 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1444,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1459,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1477,60 +1511,63 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-500</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-200</v>
       </c>
       <c r="G21" s="3">
         <v>-200</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
         <v>-200</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T21" s="3">
         <v>0</v>
@@ -1539,13 +1576,16 @@
         <v>0</v>
       </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1565,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1607,60 +1647,63 @@
         <v>100</v>
       </c>
       <c r="W22" s="3">
+        <v>100</v>
+      </c>
+      <c r="X22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-200</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-300</v>
       </c>
       <c r="R23" s="3">
         <v>-300</v>
       </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
@@ -1669,13 +1712,16 @@
         <v>-100</v>
       </c>
       <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-200</v>
       </c>
       <c r="G26" s="3">
         <v>-200</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-300</v>
       </c>
       <c r="R26" s="3">
         <v>-300</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="T26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
       </c>
       <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-200</v>
       </c>
       <c r="G27" s="3">
         <v>-200</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-300</v>
       </c>
       <c r="R27" s="3">
         <v>-300</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="T27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
       </c>
       <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2194,17 +2261,20 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2224,11 +2294,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2239,11 +2309,11 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2257,75 +2327,81 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-200</v>
       </c>
       <c r="G33" s="3">
         <v>-200</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-300</v>
       </c>
       <c r="R33" s="3">
         <v>-300</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="T33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3">
         <v>-100</v>
       </c>
       <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-200</v>
       </c>
       <c r="G35" s="3">
         <v>-200</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-300</v>
       </c>
       <c r="R35" s="3">
         <v>-300</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="T35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
         <v>-100</v>
       </c>
       <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
@@ -2583,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -2592,19 +2679,19 @@
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
@@ -2622,25 +2709,28 @@
         <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
-        <v>100</v>
-      </c>
       <c r="U41" s="3">
         <v>100</v>
       </c>
       <c r="V41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2704,19 +2794,22 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>300</v>
-      </c>
-      <c r="F43" s="3">
-        <v>400</v>
       </c>
       <c r="G43" s="3">
         <v>400</v>
@@ -2731,16 +2824,16 @@
         <v>400</v>
       </c>
       <c r="K43" s="3">
+        <v>400</v>
+      </c>
+      <c r="L43" s="3">
         <v>500</v>
-      </c>
-      <c r="L43" s="3">
-        <v>400</v>
       </c>
       <c r="M43" s="3">
         <v>400</v>
       </c>
       <c r="N43" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O43" s="3">
         <v>500</v>
@@ -2749,33 +2842,36 @@
         <v>500</v>
       </c>
       <c r="Q43" s="3">
+        <v>500</v>
+      </c>
+      <c r="R43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
-      </c>
-      <c r="S43" s="3">
-        <v>500</v>
       </c>
       <c r="T43" s="3">
         <v>500</v>
       </c>
       <c r="U43" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="V43" s="3">
         <v>600</v>
       </c>
       <c r="W43" s="3">
+        <v>600</v>
+      </c>
+      <c r="X43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E44" s="3">
         <v>500</v>
@@ -2784,40 +2880,40 @@
         <v>500</v>
       </c>
       <c r="G44" s="3">
+        <v>500</v>
+      </c>
+      <c r="H44" s="3">
         <v>600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>800</v>
-      </c>
-      <c r="M44" s="3">
-        <v>1000</v>
       </c>
       <c r="N44" s="3">
         <v>1000</v>
       </c>
       <c r="O44" s="3">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="P44" s="3">
         <v>1300</v>
       </c>
       <c r="Q44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R44" s="3">
         <v>1400</v>
-      </c>
-      <c r="R44" s="3">
-        <v>1500</v>
       </c>
       <c r="S44" s="3">
         <v>1500</v>
@@ -2829,13 +2925,16 @@
         <v>1500</v>
       </c>
       <c r="V44" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="W44" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
@@ -2852,14 +2951,14 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
@@ -2873,22 +2972,22 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
@@ -2899,73 +2998,79 @@
       <c r="W45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="E46" s="3">
         <v>1000</v>
       </c>
       <c r="F46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1600</v>
-      </c>
-      <c r="O46" s="3">
-        <v>1900</v>
       </c>
       <c r="P46" s="3">
         <v>1900</v>
       </c>
       <c r="Q46" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="R46" s="3">
         <v>2000</v>
       </c>
       <c r="S46" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="T46" s="3">
         <v>2200</v>
       </c>
       <c r="U46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V46" s="3">
         <v>2300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3029,13 +3134,16 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E48" s="3">
         <v>600</v>
@@ -3047,7 +3155,7 @@
         <v>600</v>
       </c>
       <c r="H48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I48" s="3">
         <v>700</v>
@@ -3071,7 +3179,7 @@
         <v>700</v>
       </c>
       <c r="P48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q48" s="3">
         <v>800</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -3343,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="T52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U52" s="3">
         <v>100</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1800</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1900</v>
       </c>
       <c r="G54" s="3">
         <v>1900</v>
       </c>
       <c r="H54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I54" s="3">
         <v>2300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2100</v>
-      </c>
-      <c r="K54" s="3">
-        <v>2200</v>
       </c>
       <c r="L54" s="3">
         <v>2200</v>
       </c>
       <c r="M54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N54" s="3">
         <v>2300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2500</v>
-      </c>
-      <c r="O54" s="3">
-        <v>2800</v>
       </c>
       <c r="P54" s="3">
         <v>2800</v>
       </c>
       <c r="Q54" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="R54" s="3">
         <v>2900</v>
       </c>
       <c r="S54" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="T54" s="3">
         <v>3100</v>
       </c>
       <c r="U54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="V54" s="3">
         <v>3300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3534,13 +3664,14 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E57" s="3">
         <v>600</v>
@@ -3555,37 +3686,37 @@
         <v>600</v>
       </c>
       <c r="I57" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J57" s="3">
         <v>700</v>
       </c>
       <c r="K57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L57" s="3">
         <v>600</v>
       </c>
       <c r="M57" s="3">
+        <v>600</v>
+      </c>
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>400</v>
       </c>
       <c r="R57" s="3">
         <v>400</v>
       </c>
       <c r="S57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
@@ -3599,73 +3730,79 @@
       <c r="W57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="E58" s="3">
         <v>1900</v>
       </c>
       <c r="F58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G58" s="3">
         <v>700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1700</v>
       </c>
       <c r="H58" s="3">
         <v>1700</v>
       </c>
       <c r="I58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J58" s="3">
         <v>1400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1500</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1400</v>
       </c>
       <c r="M58" s="3">
         <v>1400</v>
       </c>
       <c r="N58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O58" s="3">
         <v>700</v>
-      </c>
-      <c r="O58" s="3">
-        <v>800</v>
       </c>
       <c r="P58" s="3">
         <v>800</v>
       </c>
       <c r="Q58" s="3">
+        <v>800</v>
+      </c>
+      <c r="R58" s="3">
         <v>700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>500</v>
-      </c>
-      <c r="S58" s="3">
-        <v>700</v>
       </c>
       <c r="T58" s="3">
         <v>700</v>
       </c>
       <c r="U58" s="3">
+        <v>700</v>
+      </c>
+      <c r="V58" s="3">
         <v>800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
@@ -3673,31 +3810,31 @@
         <v>600</v>
       </c>
       <c r="E59" s="3">
+        <v>600</v>
+      </c>
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>700</v>
       </c>
       <c r="K59" s="3">
         <v>700</v>
       </c>
       <c r="L59" s="3">
+        <v>700</v>
+      </c>
+      <c r="M59" s="3">
         <v>600</v>
-      </c>
-      <c r="M59" s="3">
-        <v>700</v>
       </c>
       <c r="N59" s="3">
         <v>700</v>
@@ -3706,7 +3843,7 @@
         <v>700</v>
       </c>
       <c r="P59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q59" s="3">
         <v>600</v>
@@ -3715,7 +3852,7 @@
         <v>600</v>
       </c>
       <c r="S59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T59" s="3">
         <v>500</v>
@@ -3724,60 +3861,63 @@
         <v>500</v>
       </c>
       <c r="V59" s="3">
+        <v>500</v>
+      </c>
+      <c r="W59" s="3">
         <v>600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2000</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1800</v>
       </c>
       <c r="Q60" s="3">
         <v>1800</v>
       </c>
       <c r="R60" s="3">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="S60" s="3">
         <v>1500</v>
@@ -3786,16 +3926,19 @@
         <v>1500</v>
       </c>
       <c r="U60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V60" s="3">
         <v>1700</v>
-      </c>
-      <c r="V60" s="3">
-        <v>1600</v>
       </c>
       <c r="W60" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -3806,11 +3949,11 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>1100</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3818,11 +3961,11 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>1100</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3830,22 +3973,22 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>800</v>
       </c>
       <c r="P61" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q61" s="3">
         <v>700</v>
       </c>
       <c r="R61" s="3">
+        <v>700</v>
+      </c>
+      <c r="S61" s="3">
         <v>800</v>
-      </c>
-      <c r="S61" s="3">
-        <v>700</v>
       </c>
       <c r="T61" s="3">
         <v>700</v>
@@ -3854,13 +3997,16 @@
         <v>700</v>
       </c>
       <c r="V61" s="3">
+        <v>700</v>
+      </c>
+      <c r="W61" s="3">
         <v>800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -3877,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
@@ -3886,17 +4032,17 @@
         <v>100</v>
       </c>
       <c r="K62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
@@ -3915,17 +4061,20 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-      <c r="U62" s="3" t="s">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
-      </c>
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3100</v>
-      </c>
-      <c r="E66" s="3">
-        <v>3200</v>
       </c>
       <c r="F66" s="3">
         <v>3200</v>
       </c>
       <c r="G66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H66" s="3">
         <v>3000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2700</v>
-      </c>
-      <c r="P66" s="3">
-        <v>2500</v>
       </c>
       <c r="Q66" s="3">
         <v>2500</v>
       </c>
       <c r="R66" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="S66" s="3">
         <v>2300</v>
       </c>
       <c r="T66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="U66" s="3">
         <v>2200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-24200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-23900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-23400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-23100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-22900</v>
       </c>
       <c r="I72" s="3">
         <v>-22900</v>
       </c>
       <c r="J72" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-22600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-22300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-22200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-22100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-21900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-21500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-21300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-21100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-20800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-20600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-20500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-20400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-20300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-20100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,58 +4912,61 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-900</v>
       </c>
       <c r="I76" s="3">
         <v>-900</v>
       </c>
       <c r="J76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K76" s="3">
         <v>-800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-600</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-400</v>
       </c>
       <c r="M76" s="3">
         <v>-400</v>
       </c>
       <c r="N76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O76" s="3">
         <v>-100</v>
       </c>
-      <c r="O76" s="3">
-        <v>100</v>
-      </c>
       <c r="P76" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q76" s="3">
         <v>200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>600</v>
-      </c>
-      <c r="S76" s="3">
-        <v>900</v>
       </c>
       <c r="T76" s="3">
         <v>900</v>
@@ -4789,13 +4975,16 @@
         <v>900</v>
       </c>
       <c r="V76" s="3">
+        <v>900</v>
+      </c>
+      <c r="W76" s="3">
         <v>1000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-200</v>
       </c>
       <c r="G81" s="3">
         <v>-200</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-300</v>
       </c>
       <c r="R81" s="3">
         <v>-300</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="T81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U81" s="3">
         <v>-100</v>
       </c>
       <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5082,10 +5281,13 @@
         <v>0</v>
       </c>
       <c r="W83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
       <c r="K89" s="3">
+        <v>100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
       <c r="M89" s="3">
         <v>100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>200</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W89" s="3">
+        <v>100</v>
+      </c>
+      <c r="X89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5552,20 +5773,23 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>55</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6053,64 +6299,67 @@
         <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6189,44 +6441,44 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
@@ -6234,9 +6486,12 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABMC_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,142 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
-      </c>
-      <c r="K8" s="3">
-        <v>900</v>
       </c>
       <c r="L8" s="3">
         <v>900</v>
       </c>
       <c r="M8" s="3">
+        <v>900</v>
+      </c>
+      <c r="N8" s="3">
         <v>1000</v>
-      </c>
-      <c r="N8" s="3">
-        <v>900</v>
       </c>
       <c r="O8" s="3">
         <v>900</v>
@@ -806,31 +809,34 @@
         <v>900</v>
       </c>
       <c r="Q8" s="3">
+        <v>900</v>
+      </c>
+      <c r="R8" s="3">
         <v>1100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1400</v>
-      </c>
-      <c r="U8" s="3">
-        <v>1300</v>
       </c>
       <c r="V8" s="3">
         <v>1300</v>
       </c>
       <c r="W8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X8" s="3">
         <v>1200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -841,132 +847,138 @@
         <v>400</v>
       </c>
       <c r="F9" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G9" s="3">
         <v>500</v>
       </c>
       <c r="H9" s="3">
+        <v>500</v>
+      </c>
+      <c r="I9" s="3">
         <v>600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
       </c>
       <c r="I10" s="3">
+        <v>300</v>
+      </c>
+      <c r="J10" s="3">
         <v>600</v>
-      </c>
-      <c r="J10" s="3">
-        <v>200</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
       </c>
       <c r="L10" s="3">
+        <v>200</v>
+      </c>
+      <c r="M10" s="3">
         <v>400</v>
-      </c>
-      <c r="M10" s="3">
-        <v>300</v>
       </c>
       <c r="N10" s="3">
         <v>300</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>500</v>
-      </c>
-      <c r="R10" s="3">
-        <v>300</v>
       </c>
       <c r="S10" s="3">
         <v>300</v>
       </c>
       <c r="T10" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="U10" s="3">
         <v>600</v>
       </c>
       <c r="V10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="W10" s="3">
         <v>500</v>
       </c>
       <c r="X10" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1057,10 +1070,13 @@
         <v>0</v>
       </c>
       <c r="X12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,16 +1143,19 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>-300</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>55</v>
@@ -1153,8 +1172,8 @@
       <c r="J14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,135 +1311,139 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1100</v>
       </c>
       <c r="N17" s="3">
         <v>1100</v>
       </c>
       <c r="O17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1200</v>
       </c>
       <c r="S17" s="3">
         <v>1200</v>
       </c>
       <c r="T17" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="U17" s="3">
         <v>1300</v>
       </c>
       <c r="V17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W17" s="3">
         <v>1400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
-        <v>100</v>
-      </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W18" s="3">
         <v>-100</v>
@@ -1422,8 +1451,11 @@
       <c r="X18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,19 +1480,20 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
-        <v>100</v>
-      </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1481,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1496,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
@@ -1514,63 +1547,66 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E21" s="3">
         <v>700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-200</v>
       </c>
       <c r="H21" s="3">
         <v>-200</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3">
         <v>-200</v>
       </c>
       <c r="T21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="U21" s="3">
         <v>0</v>
@@ -1579,13 +1615,16 @@
         <v>0</v>
       </c>
       <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1608,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1650,63 +1689,66 @@
         <v>100</v>
       </c>
       <c r="X22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-200</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-300</v>
       </c>
       <c r="S23" s="3">
         <v>-300</v>
       </c>
       <c r="T23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
@@ -1715,13 +1757,16 @@
         <v>-100</v>
       </c>
       <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-200</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-300</v>
       </c>
       <c r="S26" s="3">
         <v>-300</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="U26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3">
         <v>-100</v>
       </c>
       <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-200</v>
       </c>
       <c r="H27" s="3">
         <v>-200</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
       <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-300</v>
       </c>
       <c r="S27" s="3">
         <v>-300</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="U27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V27" s="3">
         <v>-100</v>
       </c>
       <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2264,20 +2330,23 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2297,11 +2366,11 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2312,11 +2381,11 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2330,78 +2399,84 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-200</v>
       </c>
       <c r="H33" s="3">
         <v>-200</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
       </c>
       <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-300</v>
       </c>
       <c r="S33" s="3">
         <v>-300</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="U33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V33" s="3">
         <v>-100</v>
       </c>
       <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-200</v>
       </c>
       <c r="H35" s="3">
         <v>-200</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
       </c>
       <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-300</v>
       </c>
       <c r="S35" s="3">
         <v>-300</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="U35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3">
         <v>-100</v>
       </c>
       <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2661,19 +2746,20 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
@@ -2682,19 +2768,19 @@
         <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
@@ -2712,25 +2798,28 @@
         <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
-        <v>100</v>
-      </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
       <c r="W41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2797,22 +2886,25 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
-      </c>
-      <c r="G43" s="3">
-        <v>400</v>
       </c>
       <c r="H43" s="3">
         <v>400</v>
@@ -2827,16 +2919,16 @@
         <v>400</v>
       </c>
       <c r="L43" s="3">
+        <v>400</v>
+      </c>
+      <c r="M43" s="3">
         <v>500</v>
-      </c>
-      <c r="M43" s="3">
-        <v>400</v>
       </c>
       <c r="N43" s="3">
         <v>400</v>
       </c>
       <c r="O43" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P43" s="3">
         <v>500</v>
@@ -2845,28 +2937,31 @@
         <v>500</v>
       </c>
       <c r="R43" s="3">
+        <v>500</v>
+      </c>
+      <c r="S43" s="3">
         <v>400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
-      </c>
-      <c r="T43" s="3">
-        <v>500</v>
       </c>
       <c r="U43" s="3">
         <v>500</v>
       </c>
       <c r="V43" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="W43" s="3">
         <v>600</v>
       </c>
       <c r="X43" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2874,7 +2969,7 @@
         <v>400</v>
       </c>
       <c r="E44" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F44" s="3">
         <v>500</v>
@@ -2883,40 +2978,40 @@
         <v>500</v>
       </c>
       <c r="H44" s="3">
+        <v>500</v>
+      </c>
+      <c r="I44" s="3">
         <v>600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>800</v>
-      </c>
-      <c r="N44" s="3">
-        <v>1000</v>
       </c>
       <c r="O44" s="3">
         <v>1000</v>
       </c>
       <c r="P44" s="3">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="Q44" s="3">
         <v>1300</v>
       </c>
       <c r="R44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S44" s="3">
         <v>1400</v>
-      </c>
-      <c r="S44" s="3">
-        <v>1500</v>
       </c>
       <c r="T44" s="3">
         <v>1500</v>
@@ -2928,13 +3023,16 @@
         <v>1500</v>
       </c>
       <c r="W44" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="X44" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
@@ -2954,14 +3052,14 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
@@ -2975,22 +3073,22 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
@@ -3001,76 +3099,82 @@
       <c r="X45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1600</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1000</v>
       </c>
       <c r="F46" s="3">
         <v>1000</v>
       </c>
       <c r="G46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1600</v>
-      </c>
-      <c r="P46" s="3">
-        <v>1900</v>
       </c>
       <c r="Q46" s="3">
         <v>1900</v>
       </c>
       <c r="R46" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="S46" s="3">
         <v>2000</v>
       </c>
       <c r="T46" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="U46" s="3">
         <v>2200</v>
       </c>
       <c r="V46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="W46" s="3">
         <v>2300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -3146,7 +3253,7 @@
         <v>500</v>
       </c>
       <c r="E48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F48" s="3">
         <v>600</v>
@@ -3158,7 +3265,7 @@
         <v>600</v>
       </c>
       <c r="I48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J48" s="3">
         <v>700</v>
@@ -3182,7 +3289,7 @@
         <v>700</v>
       </c>
       <c r="Q48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="R48" s="3">
         <v>800</v>
@@ -3205,13 +3312,16 @@
       <c r="X48" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
         <v>100</v>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -3466,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="U52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V52" s="3">
         <v>100</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1800</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1900</v>
       </c>
       <c r="H54" s="3">
         <v>1900</v>
       </c>
       <c r="I54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J54" s="3">
         <v>2300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2100</v>
-      </c>
-      <c r="L54" s="3">
-        <v>2200</v>
       </c>
       <c r="M54" s="3">
         <v>2200</v>
       </c>
       <c r="N54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O54" s="3">
         <v>2300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2500</v>
-      </c>
-      <c r="P54" s="3">
-        <v>2800</v>
       </c>
       <c r="Q54" s="3">
         <v>2800</v>
       </c>
       <c r="R54" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="S54" s="3">
         <v>2900</v>
       </c>
       <c r="T54" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="U54" s="3">
         <v>3100</v>
       </c>
       <c r="V54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="W54" s="3">
         <v>3300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
@@ -3674,7 +3804,7 @@
         <v>700</v>
       </c>
       <c r="E57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F57" s="3">
         <v>600</v>
@@ -3689,37 +3819,37 @@
         <v>600</v>
       </c>
       <c r="J57" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K57" s="3">
         <v>700</v>
       </c>
       <c r="L57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M57" s="3">
         <v>600</v>
       </c>
       <c r="N57" s="3">
+        <v>600</v>
+      </c>
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>400</v>
       </c>
       <c r="S57" s="3">
         <v>400</v>
       </c>
       <c r="T57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U57" s="3">
         <v>300</v>
@@ -3733,76 +3863,82 @@
       <c r="X57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3">
         <v>1700</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1900</v>
       </c>
       <c r="F58" s="3">
         <v>1900</v>
       </c>
       <c r="G58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H58" s="3">
         <v>700</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1700</v>
       </c>
       <c r="I58" s="3">
         <v>1700</v>
       </c>
       <c r="J58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1500</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1400</v>
       </c>
       <c r="N58" s="3">
         <v>1400</v>
       </c>
       <c r="O58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P58" s="3">
         <v>700</v>
-      </c>
-      <c r="P58" s="3">
-        <v>800</v>
       </c>
       <c r="Q58" s="3">
         <v>800</v>
       </c>
       <c r="R58" s="3">
+        <v>800</v>
+      </c>
+      <c r="S58" s="3">
         <v>700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>500</v>
-      </c>
-      <c r="T58" s="3">
-        <v>700</v>
       </c>
       <c r="U58" s="3">
         <v>700</v>
       </c>
       <c r="V58" s="3">
+        <v>700</v>
+      </c>
+      <c r="W58" s="3">
         <v>800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
@@ -3813,31 +3949,31 @@
         <v>600</v>
       </c>
       <c r="F59" s="3">
+        <v>600</v>
+      </c>
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
-      </c>
-      <c r="K59" s="3">
-        <v>700</v>
       </c>
       <c r="L59" s="3">
         <v>700</v>
       </c>
       <c r="M59" s="3">
+        <v>700</v>
+      </c>
+      <c r="N59" s="3">
         <v>600</v>
-      </c>
-      <c r="N59" s="3">
-        <v>700</v>
       </c>
       <c r="O59" s="3">
         <v>700</v>
@@ -3846,7 +3982,7 @@
         <v>700</v>
       </c>
       <c r="Q59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="R59" s="3">
         <v>600</v>
@@ -3855,7 +3991,7 @@
         <v>600</v>
       </c>
       <c r="T59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="U59" s="3">
         <v>500</v>
@@ -3864,63 +4000,66 @@
         <v>500</v>
       </c>
       <c r="W59" s="3">
+        <v>500</v>
+      </c>
+      <c r="X59" s="3">
         <v>600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1800</v>
       </c>
       <c r="R60" s="3">
         <v>1800</v>
       </c>
       <c r="S60" s="3">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="T60" s="3">
         <v>1500</v>
@@ -3929,16 +4068,19 @@
         <v>1500</v>
       </c>
       <c r="V60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W60" s="3">
         <v>1700</v>
-      </c>
-      <c r="W60" s="3">
-        <v>1600</v>
       </c>
       <c r="X60" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -3952,11 +4094,11 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>1100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3964,11 +4106,11 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>1100</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3976,22 +4118,22 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>800</v>
       </c>
       <c r="Q61" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="R61" s="3">
         <v>700</v>
       </c>
       <c r="S61" s="3">
+        <v>700</v>
+      </c>
+      <c r="T61" s="3">
         <v>800</v>
-      </c>
-      <c r="T61" s="3">
-        <v>700</v>
       </c>
       <c r="U61" s="3">
         <v>700</v>
@@ -4000,13 +4142,16 @@
         <v>700</v>
       </c>
       <c r="W61" s="3">
+        <v>700</v>
+      </c>
+      <c r="X61" s="3">
         <v>800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -4026,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
@@ -4035,17 +4180,17 @@
         <v>100</v>
       </c>
       <c r="L62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
@@ -4064,17 +4209,20 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-      <c r="V62" s="3" t="s">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E66" s="3">
         <v>3000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>3200</v>
       </c>
       <c r="G66" s="3">
         <v>3200</v>
       </c>
       <c r="H66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I66" s="3">
         <v>3000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2700</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>2500</v>
       </c>
       <c r="R66" s="3">
         <v>2500</v>
       </c>
       <c r="S66" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="T66" s="3">
         <v>2300</v>
       </c>
       <c r="U66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="V66" s="3">
         <v>2200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-23500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-24200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-23900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-23400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-23100</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-22900</v>
       </c>
       <c r="J72" s="3">
         <v>-22900</v>
       </c>
       <c r="K72" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="L72" s="3">
         <v>-22600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-22300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-22200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-22100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-21900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-21500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-21300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-21100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-20800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-20600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-20500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-20400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-20300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-20100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,61 +5097,64 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-900</v>
       </c>
       <c r="J76" s="3">
         <v>-900</v>
       </c>
       <c r="K76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L76" s="3">
         <v>-800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-600</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-400</v>
       </c>
       <c r="N76" s="3">
         <v>-400</v>
       </c>
       <c r="O76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P76" s="3">
         <v>-100</v>
       </c>
-      <c r="P76" s="3">
-        <v>100</v>
-      </c>
       <c r="Q76" s="3">
+        <v>100</v>
+      </c>
+      <c r="R76" s="3">
         <v>200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>600</v>
-      </c>
-      <c r="T76" s="3">
-        <v>900</v>
       </c>
       <c r="U76" s="3">
         <v>900</v>
@@ -4978,13 +5163,16 @@
         <v>900</v>
       </c>
       <c r="W76" s="3">
+        <v>900</v>
+      </c>
+      <c r="X76" s="3">
         <v>1000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-200</v>
       </c>
       <c r="H81" s="3">
         <v>-200</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
       </c>
       <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-300</v>
       </c>
       <c r="S81" s="3">
         <v>-300</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="U81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V81" s="3">
         <v>-100</v>
       </c>
       <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5284,10 +5482,13 @@
         <v>0</v>
       </c>
       <c r="X83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
       <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>100</v>
-      </c>
       <c r="N89" s="3">
         <v>100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>200</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5776,20 +5996,23 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>55</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
         <v>200</v>
       </c>
       <c r="F100" s="3">
+        <v>200</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,13 +6674,16 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -6444,44 +6695,44 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -6489,9 +6740,12 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>ABMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,123 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="F8" s="3">
         <v>500</v>
@@ -782,90 +790,96 @@
         <v>600</v>
       </c>
       <c r="H8" s="3">
+        <v>500</v>
+      </c>
+      <c r="I8" s="3">
+        <v>600</v>
+      </c>
+      <c r="J8" s="3">
         <v>800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>900</v>
-      </c>
-      <c r="M8" s="3">
-        <v>900</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1000</v>
       </c>
       <c r="O8" s="3">
         <v>900</v>
       </c>
       <c r="P8" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="Q8" s="3">
         <v>900</v>
       </c>
       <c r="R8" s="3">
+        <v>900</v>
+      </c>
+      <c r="S8" s="3">
+        <v>900</v>
+      </c>
+      <c r="T8" s="3">
         <v>1100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F9" s="3">
         <v>400</v>
       </c>
       <c r="G9" s="3">
+        <v>400</v>
+      </c>
+      <c r="H9" s="3">
+        <v>400</v>
+      </c>
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>500</v>
-      </c>
-      <c r="L9" s="3">
-        <v>700</v>
       </c>
       <c r="M9" s="3">
         <v>500</v>
@@ -874,28 +888,28 @@
         <v>700</v>
       </c>
       <c r="O9" s="3">
+        <v>500</v>
+      </c>
+      <c r="P9" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q9" s="3">
         <v>600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>500</v>
-      </c>
-      <c r="R9" s="3">
-        <v>600</v>
-      </c>
-      <c r="S9" s="3">
-        <v>700</v>
       </c>
       <c r="T9" s="3">
         <v>600</v>
       </c>
       <c r="U9" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="V9" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="W9" s="3">
         <v>800</v>
@@ -904,81 +918,93 @@
         <v>700</v>
       </c>
       <c r="Y9" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA9" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
       <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,10 +1101,16 @@
         <v>0</v>
       </c>
       <c r="Y12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,22 +1180,28 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>100</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="3">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3">
         <v>-300</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>55</v>
@@ -1175,11 +1215,11 @@
       <c r="K14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,37 +1364,39 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F17" s="3">
         <v>800</v>
       </c>
       <c r="G17" s="3">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="H17" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="I17" s="3">
         <v>1100</v>
       </c>
       <c r="J17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L17" s="3">
         <v>1700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1100</v>
       </c>
       <c r="M17" s="3">
         <v>1000</v>
@@ -1351,40 +1405,46 @@
         <v>1100</v>
       </c>
       <c r="O17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1300</v>
-      </c>
-      <c r="V17" s="3">
-        <v>1300</v>
-      </c>
-      <c r="W17" s="3">
-        <v>1400</v>
       </c>
       <c r="X17" s="3">
         <v>1300</v>
       </c>
       <c r="Y17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AA17" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1392,70 +1452,76 @@
         <v>-300</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
         <v>-300</v>
       </c>
       <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
-        <v>100</v>
-      </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="X18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1481,25 +1547,27 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
-        <v>100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1517,13 +1585,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1532,13 +1600,13 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
@@ -1550,10 +1618,16 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1561,75 +1635,81 @@
         <v>-300</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G21" s="3">
         <v>700</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-500</v>
       </c>
       <c r="H21" s="3">
         <v>-200</v>
       </c>
       <c r="I21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
       <c r="W21" s="3">
         <v>0</v>
       </c>
       <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1650,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1692,81 +1772,93 @@
         <v>100</v>
       </c>
       <c r="Y22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>700</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-600</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
       </c>
       <c r="I23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-400</v>
       </c>
       <c r="Q23" s="3">
         <v>-200</v>
       </c>
       <c r="R23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-100</v>
       </c>
       <c r="W23" s="3">
         <v>-100</v>
       </c>
       <c r="X23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Y23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>700</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-600</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
       </c>
       <c r="I26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-400</v>
       </c>
       <c r="Q26" s="3">
         <v>-200</v>
       </c>
       <c r="R26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>-100</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-200</v>
       </c>
       <c r="Y26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>700</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-600</v>
       </c>
       <c r="H27" s="3">
         <v>-200</v>
       </c>
       <c r="I27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-400</v>
       </c>
       <c r="Q27" s="3">
         <v>-200</v>
       </c>
       <c r="R27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>-100</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-200</v>
       </c>
       <c r="Y27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2333,25 +2467,31 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2369,14 +2509,14 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2384,14 +2524,14 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2402,81 +2542,93 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>700</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-600</v>
       </c>
       <c r="H33" s="3">
         <v>-200</v>
       </c>
       <c r="I33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-400</v>
       </c>
       <c r="Q33" s="3">
         <v>-200</v>
       </c>
       <c r="R33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-100</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-200</v>
       </c>
       <c r="Y33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>700</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-600</v>
       </c>
       <c r="H35" s="3">
         <v>-200</v>
       </c>
       <c r="I35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-400</v>
       </c>
       <c r="Q35" s="3">
         <v>-200</v>
       </c>
       <c r="R35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-100</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-200</v>
       </c>
       <c r="Y35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2747,46 +2919,48 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
@@ -2801,25 +2975,31 @@
         <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
         <v>200</v>
       </c>
-      <c r="V41" s="3">
-        <v>100</v>
-      </c>
-      <c r="W41" s="3">
-        <v>100</v>
-      </c>
       <c r="X41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z41" s="3">
         <v>200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2889,28 +3069,34 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>500</v>
+      </c>
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1100</v>
-      </c>
-      <c r="F43" s="3">
-        <v>400</v>
-      </c>
-      <c r="G43" s="3">
-        <v>300</v>
       </c>
       <c r="H43" s="3">
         <v>400</v>
       </c>
       <c r="I43" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J43" s="3">
         <v>400</v>
@@ -2922,46 +3108,52 @@
         <v>400</v>
       </c>
       <c r="M43" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N43" s="3">
         <v>400</v>
       </c>
       <c r="O43" s="3">
+        <v>500</v>
+      </c>
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
-        <v>500</v>
-      </c>
       <c r="Q43" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R43" s="3">
         <v>500</v>
       </c>
       <c r="S43" s="3">
+        <v>500</v>
+      </c>
+      <c r="T43" s="3">
+        <v>500</v>
+      </c>
+      <c r="U43" s="3">
         <v>400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2972,52 +3164,52 @@
         <v>400</v>
       </c>
       <c r="F44" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G44" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H44" s="3">
         <v>500</v>
       </c>
       <c r="I44" s="3">
+        <v>500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>500</v>
+      </c>
+      <c r="K44" s="3">
         <v>600</v>
-      </c>
-      <c r="J44" s="3">
-        <v>800</v>
-      </c>
-      <c r="K44" s="3">
-        <v>700</v>
       </c>
       <c r="L44" s="3">
         <v>800</v>
       </c>
       <c r="M44" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="N44" s="3">
         <v>800</v>
       </c>
       <c r="O44" s="3">
+        <v>900</v>
+      </c>
+      <c r="P44" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1400</v>
-      </c>
-      <c r="T44" s="3">
-        <v>1500</v>
-      </c>
-      <c r="U44" s="3">
-        <v>1500</v>
       </c>
       <c r="V44" s="3">
         <v>1500</v>
@@ -3026,13 +3218,19 @@
         <v>1500</v>
       </c>
       <c r="X44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Z44" s="3">
         <v>1600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
@@ -3055,17 +3253,17 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
@@ -3076,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3085,16 +3283,16 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
@@ -3102,79 +3300,91 @@
       <c r="Y45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F46" s="3">
         <v>1300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>2200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>2300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>2400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3244,8 +3454,14 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -3256,10 +3472,10 @@
         <v>500</v>
       </c>
       <c r="F48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H48" s="3">
         <v>600</v>
@@ -3268,10 +3484,10 @@
         <v>600</v>
       </c>
       <c r="J48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L48" s="3">
         <v>700</v>
@@ -3292,10 +3508,10 @@
         <v>700</v>
       </c>
       <c r="R48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="S48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T48" s="3">
         <v>800</v>
@@ -3315,19 +3531,25 @@
       <c r="Y48" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>100</v>
+      <c r="D49" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="F49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>100</v>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -3588,10 +3828,10 @@
         <v>0</v>
       </c>
       <c r="V52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X52" s="3">
         <v>100</v>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F54" s="3">
         <v>1900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>3100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>3300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>3400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3795,22 +4055,24 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>800</v>
+      </c>
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>600</v>
-      </c>
-      <c r="G57" s="3">
-        <v>600</v>
       </c>
       <c r="H57" s="3">
         <v>600</v>
@@ -3822,40 +4084,40 @@
         <v>600</v>
       </c>
       <c r="K57" s="3">
+        <v>600</v>
+      </c>
+      <c r="L57" s="3">
+        <v>600</v>
+      </c>
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
-      </c>
-      <c r="O57" s="3">
-        <v>500</v>
-      </c>
-      <c r="P57" s="3">
-        <v>400</v>
       </c>
       <c r="Q57" s="3">
         <v>500</v>
       </c>
       <c r="R57" s="3">
+        <v>400</v>
+      </c>
+      <c r="S57" s="3">
+        <v>500</v>
+      </c>
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>400</v>
-      </c>
-      <c r="U57" s="3">
-        <v>300</v>
-      </c>
-      <c r="V57" s="3">
-        <v>300</v>
       </c>
       <c r="W57" s="3">
         <v>300</v>
@@ -3866,8 +4128,14 @@
       <c r="Y57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -3875,61 +4143,61 @@
         <v>1500</v>
       </c>
       <c r="E58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G58" s="3">
         <v>1700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>800</v>
-      </c>
-      <c r="S58" s="3">
-        <v>700</v>
-      </c>
-      <c r="T58" s="3">
-        <v>500</v>
       </c>
       <c r="U58" s="3">
         <v>700</v>
       </c>
       <c r="V58" s="3">
+        <v>500</v>
+      </c>
+      <c r="W58" s="3">
         <v>700</v>
-      </c>
-      <c r="W58" s="3">
-        <v>800</v>
       </c>
       <c r="X58" s="3">
         <v>700</v>
@@ -3937,8 +4205,14 @@
       <c r="Y58" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
@@ -3952,10 +4226,10 @@
         <v>600</v>
       </c>
       <c r="G59" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H59" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="I59" s="3">
         <v>700</v>
@@ -3964,123 +4238,135 @@
         <v>800</v>
       </c>
       <c r="K59" s="3">
+        <v>700</v>
+      </c>
+      <c r="L59" s="3">
+        <v>800</v>
+      </c>
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
-      </c>
-      <c r="M59" s="3">
-        <v>700</v>
-      </c>
-      <c r="N59" s="3">
-        <v>600</v>
       </c>
       <c r="O59" s="3">
         <v>700</v>
       </c>
       <c r="P59" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q59" s="3">
         <v>700</v>
       </c>
       <c r="R59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="S59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T59" s="3">
         <v>600</v>
       </c>
       <c r="U59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="V59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="W59" s="3">
         <v>500</v>
       </c>
       <c r="X59" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Y59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F60" s="3">
         <v>2800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2700</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1800</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>2000</v>
       </c>
       <c r="R60" s="3">
         <v>1800</v>
       </c>
       <c r="S60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T60" s="3">
         <v>1800</v>
       </c>
-      <c r="T60" s="3">
-        <v>1500</v>
-      </c>
       <c r="U60" s="3">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="V60" s="3">
         <v>1500</v>
       </c>
       <c r="W60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Y60" s="3">
         <v>1700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -4097,61 +4383,67 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>1100</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>1100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>700</v>
-      </c>
-      <c r="S61" s="3">
-        <v>700</v>
-      </c>
-      <c r="T61" s="3">
-        <v>800</v>
       </c>
       <c r="U61" s="3">
         <v>700</v>
       </c>
       <c r="V61" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="W61" s="3">
         <v>700</v>
       </c>
       <c r="X61" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Y61" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -4174,29 +4466,29 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
       </c>
       <c r="M62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
@@ -4212,17 +4504,23 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-      <c r="W62" s="3" t="s">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,46 +4744,52 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F66" s="3">
         <v>2800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>3200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>3000</v>
       </c>
       <c r="J66" s="3">
         <v>3200</v>
       </c>
       <c r="K66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M66" s="3">
         <v>3700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2800</v>
-      </c>
-      <c r="N66" s="3">
-        <v>2600</v>
-      </c>
-      <c r="O66" s="3">
-        <v>2700</v>
       </c>
       <c r="P66" s="3">
         <v>2600</v>
@@ -4482,31 +4798,37 @@
         <v>2700</v>
       </c>
       <c r="R66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T66" s="3">
         <v>2500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2200</v>
-      </c>
-      <c r="W66" s="3">
-        <v>2400</v>
-      </c>
-      <c r="X66" s="3">
-        <v>2300</v>
       </c>
       <c r="Y66" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-23800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-23500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-24200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-23900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-23400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-23100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-22900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-22900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-22600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-22300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-22200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-22100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-21900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-21500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-21300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-21100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-20800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-20600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-20500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-20400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-20300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-20100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-100</v>
       </c>
-      <c r="Q76" s="3">
-        <v>100</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
+        <v>100</v>
+      </c>
+      <c r="T76" s="3">
         <v>200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>600</v>
-      </c>
-      <c r="U76" s="3">
-        <v>900</v>
-      </c>
-      <c r="V76" s="3">
-        <v>900</v>
       </c>
       <c r="W76" s="3">
         <v>900</v>
       </c>
       <c r="X76" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z76" s="3">
         <v>1000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>700</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-600</v>
       </c>
       <c r="H81" s="3">
         <v>-200</v>
       </c>
       <c r="I81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-400</v>
       </c>
       <c r="Q81" s="3">
         <v>-200</v>
       </c>
       <c r="R81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-100</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-200</v>
       </c>
       <c r="Y81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5485,10 +5883,16 @@
         <v>0</v>
       </c>
       <c r="Y83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>100</v>
-      </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>200</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-      <c r="X89" s="3">
-        <v>100</v>
-      </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5999,20 +6441,26 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W91" s="3" t="s">
+      <c r="Y91" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,64 +7021,70 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
-      </c>
-      <c r="F100" s="3">
-        <v>200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>300</v>
       </c>
       <c r="H100" s="3">
         <v>200</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J100" s="3">
         <v>200</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>200</v>
+      </c>
+      <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
         <v>-100</v>
@@ -6604,10 +7096,16 @@
         <v>-100</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,19 +7175,25 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -6698,19 +7202,19 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -6719,33 +7223,39 @@
         <v>-100</v>
       </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>ABMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,43 +785,43 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
+        <v>200</v>
+      </c>
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>700</v>
-      </c>
-      <c r="N8" s="3">
-        <v>900</v>
       </c>
       <c r="O8" s="3">
         <v>900</v>
       </c>
       <c r="P8" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>900</v>
       </c>
       <c r="R8" s="3">
         <v>900</v>
@@ -826,42 +830,45 @@
         <v>900</v>
       </c>
       <c r="T8" s="3">
+        <v>900</v>
+      </c>
+      <c r="U8" s="3">
         <v>1100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1400</v>
-      </c>
-      <c r="X8" s="3">
-        <v>1300</v>
       </c>
       <c r="Y8" s="3">
         <v>1300</v>
       </c>
       <c r="Z8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AA8" s="3">
         <v>1200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>300</v>
       </c>
       <c r="F9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G9" s="3">
         <v>400</v>
@@ -870,141 +877,147 @@
         <v>400</v>
       </c>
       <c r="I9" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J9" s="3">
         <v>500</v>
       </c>
       <c r="K9" s="3">
+        <v>500</v>
+      </c>
+      <c r="L9" s="3">
         <v>600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>-100</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
       <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
       <c r="J10" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>300</v>
       </c>
       <c r="L10" s="3">
+        <v>300</v>
+      </c>
+      <c r="M10" s="3">
         <v>600</v>
-      </c>
-      <c r="M10" s="3">
-        <v>200</v>
       </c>
       <c r="N10" s="3">
         <v>200</v>
       </c>
       <c r="O10" s="3">
+        <v>200</v>
+      </c>
+      <c r="P10" s="3">
         <v>400</v>
-      </c>
-      <c r="P10" s="3">
-        <v>300</v>
       </c>
       <c r="Q10" s="3">
         <v>300</v>
       </c>
       <c r="R10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
         <v>400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>500</v>
-      </c>
-      <c r="U10" s="3">
-        <v>300</v>
       </c>
       <c r="V10" s="3">
         <v>300</v>
       </c>
       <c r="W10" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="X10" s="3">
         <v>600</v>
       </c>
       <c r="Y10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Z10" s="3">
         <v>500</v>
       </c>
       <c r="AA10" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1107,10 +1121,13 @@
         <v>0</v>
       </c>
       <c r="AA12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,25 +1203,28 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>55</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="3">
-        <v>100</v>
+      <c r="F14" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G14" s="3">
+        <v>100</v>
+      </c>
+      <c r="H14" s="3">
         <v>-300</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>55</v>
@@ -1221,8 +1241,8 @@
       <c r="M14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1375,76 +1402,79 @@
         <v>500</v>
       </c>
       <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1100</v>
       </c>
       <c r="Q17" s="3">
         <v>1100</v>
       </c>
       <c r="R17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1100</v>
-      </c>
-      <c r="U17" s="3">
-        <v>1200</v>
       </c>
       <c r="V17" s="3">
         <v>1200</v>
       </c>
       <c r="W17" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="X17" s="3">
         <v>1300</v>
       </c>
       <c r="Y17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z17" s="3">
         <v>1400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1458,61 +1488,61 @@
         <v>-300</v>
       </c>
       <c r="G18" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
       </c>
       <c r="K18" s="3">
         <v>-200</v>
       </c>
       <c r="L18" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
-        <v>100</v>
-      </c>
       <c r="X18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="3">
         <v>-100</v>
@@ -1520,8 +1550,11 @@
       <c r="AA18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1561,16 +1595,16 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
-        <v>100</v>
-      </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1591,10 +1625,10 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1606,10 +1640,10 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
@@ -1624,15 +1658,18 @@
         <v>0</v>
       </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E21" s="3">
         <v>-300</v>
@@ -1641,55 +1678,55 @@
         <v>-300</v>
       </c>
       <c r="G21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H21" s="3">
         <v>700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-200</v>
       </c>
       <c r="K21" s="3">
         <v>-200</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="V21" s="3">
         <v>-200</v>
       </c>
       <c r="W21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="X21" s="3">
         <v>0</v>
@@ -1698,13 +1735,16 @@
         <v>0</v>
       </c>
       <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1712,7 +1752,7 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1736,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1778,72 +1818,75 @@
         <v>100</v>
       </c>
       <c r="AA22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
         <v>-400</v>
       </c>
       <c r="F23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-200</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-300</v>
       </c>
       <c r="V23" s="3">
         <v>-300</v>
       </c>
       <c r="W23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="X23" s="3">
         <v>-100</v>
@@ -1852,13 +1895,16 @@
         <v>-100</v>
       </c>
       <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
         <v>-400</v>
       </c>
       <c r="F26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-200</v>
       </c>
       <c r="K26" s="3">
         <v>-200</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-300</v>
       </c>
       <c r="V26" s="3">
         <v>-300</v>
       </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="X26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="3">
         <v>-100</v>
       </c>
       <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
         <v>-400</v>
       </c>
       <c r="F27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-200</v>
       </c>
       <c r="K27" s="3">
         <v>-200</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-300</v>
       </c>
       <c r="V27" s="3">
         <v>-300</v>
       </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="X27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="3">
         <v>-100</v>
       </c>
       <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2485,17 +2555,17 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2515,11 +2585,11 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2530,11 +2600,11 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2548,87 +2618,93 @@
         <v>0</v>
       </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
         <v>-400</v>
       </c>
       <c r="F33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-200</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-300</v>
       </c>
       <c r="V33" s="3">
         <v>-300</v>
       </c>
       <c r="W33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="X33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="3">
         <v>-100</v>
       </c>
       <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
         <v>-400</v>
       </c>
       <c r="F35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-200</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-300</v>
       </c>
       <c r="V35" s="3">
         <v>-300</v>
       </c>
       <c r="W35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="X35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="3">
         <v>-100</v>
       </c>
       <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
@@ -2933,16 +3020,16 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
@@ -2951,19 +3038,19 @@
         <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
@@ -2981,25 +3068,28 @@
         <v>100</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
         <v>200</v>
       </c>
-      <c r="X41" s="3">
-        <v>100</v>
-      </c>
       <c r="Y41" s="3">
         <v>100</v>
       </c>
       <c r="Z41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3075,31 +3165,34 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>400</v>
       </c>
       <c r="K43" s="3">
         <v>400</v>
@@ -3114,16 +3207,16 @@
         <v>400</v>
       </c>
       <c r="O43" s="3">
+        <v>400</v>
+      </c>
+      <c r="P43" s="3">
         <v>500</v>
-      </c>
-      <c r="P43" s="3">
-        <v>400</v>
       </c>
       <c r="Q43" s="3">
         <v>400</v>
       </c>
       <c r="R43" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S43" s="3">
         <v>500</v>
@@ -3132,28 +3225,31 @@
         <v>500</v>
       </c>
       <c r="U43" s="3">
+        <v>500</v>
+      </c>
+      <c r="V43" s="3">
         <v>400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>300</v>
-      </c>
-      <c r="W43" s="3">
-        <v>500</v>
       </c>
       <c r="X43" s="3">
         <v>500</v>
       </c>
       <c r="Y43" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Z43" s="3">
         <v>600</v>
       </c>
       <c r="AA43" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -3170,7 +3266,7 @@
         <v>400</v>
       </c>
       <c r="H44" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I44" s="3">
         <v>500</v>
@@ -3179,40 +3275,40 @@
         <v>500</v>
       </c>
       <c r="K44" s="3">
+        <v>500</v>
+      </c>
+      <c r="L44" s="3">
         <v>600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>800</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>1000</v>
       </c>
       <c r="R44" s="3">
         <v>1000</v>
       </c>
       <c r="S44" s="3">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="T44" s="3">
         <v>1300</v>
       </c>
       <c r="U44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V44" s="3">
         <v>1400</v>
-      </c>
-      <c r="V44" s="3">
-        <v>1500</v>
       </c>
       <c r="W44" s="3">
         <v>1500</v>
@@ -3224,18 +3320,21 @@
         <v>1500</v>
       </c>
       <c r="Z44" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="AA44" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -3259,14 +3358,14 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
@@ -3280,22 +3379,22 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="3">
         <v>100</v>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
@@ -3315,76 +3417,79 @@
         <v>700</v>
       </c>
       <c r="E46" s="3">
+        <v>700</v>
+      </c>
+      <c r="F46" s="3">
         <v>1000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1600</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1000</v>
       </c>
       <c r="I46" s="3">
         <v>1000</v>
       </c>
       <c r="J46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1600</v>
-      </c>
-      <c r="S46" s="3">
-        <v>1900</v>
       </c>
       <c r="T46" s="3">
         <v>1900</v>
       </c>
       <c r="U46" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="V46" s="3">
         <v>2000</v>
       </c>
       <c r="W46" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="X46" s="3">
         <v>2200</v>
       </c>
       <c r="Y46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Z46" s="3">
         <v>2300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -3478,7 +3586,7 @@
         <v>500</v>
       </c>
       <c r="H48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I48" s="3">
         <v>600</v>
@@ -3490,7 +3598,7 @@
         <v>600</v>
       </c>
       <c r="L48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M48" s="3">
         <v>700</v>
@@ -3514,7 +3622,7 @@
         <v>700</v>
       </c>
       <c r="T48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="U48" s="3">
         <v>800</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3548,11 +3659,11 @@
       <c r="E49" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>100</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -3834,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="X52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="3">
         <v>100</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1800</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1900</v>
       </c>
       <c r="K54" s="3">
         <v>1900</v>
       </c>
       <c r="L54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M54" s="3">
         <v>2300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2100</v>
-      </c>
-      <c r="O54" s="3">
-        <v>2200</v>
       </c>
       <c r="P54" s="3">
         <v>2200</v>
       </c>
       <c r="Q54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R54" s="3">
         <v>2300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2500</v>
-      </c>
-      <c r="S54" s="3">
-        <v>2800</v>
       </c>
       <c r="T54" s="3">
         <v>2800</v>
       </c>
       <c r="U54" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="V54" s="3">
         <v>2900</v>
       </c>
       <c r="W54" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="X54" s="3">
         <v>3100</v>
       </c>
       <c r="Y54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Z54" s="3">
         <v>3300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4057,25 +4187,26 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>800</v>
-      </c>
-      <c r="F57" s="3">
-        <v>700</v>
       </c>
       <c r="G57" s="3">
         <v>700</v>
       </c>
       <c r="H57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I57" s="3">
         <v>600</v>
@@ -4090,37 +4221,37 @@
         <v>600</v>
       </c>
       <c r="M57" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N57" s="3">
         <v>700</v>
       </c>
       <c r="O57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P57" s="3">
         <v>600</v>
       </c>
       <c r="Q57" s="3">
+        <v>600</v>
+      </c>
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
-      </c>
-      <c r="U57" s="3">
-        <v>400</v>
       </c>
       <c r="V57" s="3">
         <v>400</v>
       </c>
       <c r="W57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X57" s="3">
         <v>300</v>
@@ -4134,13 +4265,16 @@
       <c r="AA57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E58" s="3">
         <v>1500</v>
@@ -4149,70 +4283,73 @@
         <v>1500</v>
       </c>
       <c r="G58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H58" s="3">
         <v>1700</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1900</v>
       </c>
       <c r="I58" s="3">
         <v>1900</v>
       </c>
       <c r="J58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K58" s="3">
         <v>700</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1700</v>
       </c>
       <c r="L58" s="3">
         <v>1700</v>
       </c>
       <c r="M58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N58" s="3">
         <v>1400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1500</v>
-      </c>
-      <c r="P58" s="3">
-        <v>1400</v>
       </c>
       <c r="Q58" s="3">
         <v>1400</v>
       </c>
       <c r="R58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S58" s="3">
         <v>700</v>
-      </c>
-      <c r="S58" s="3">
-        <v>800</v>
       </c>
       <c r="T58" s="3">
         <v>800</v>
       </c>
       <c r="U58" s="3">
+        <v>800</v>
+      </c>
+      <c r="V58" s="3">
         <v>700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>500</v>
-      </c>
-      <c r="W58" s="3">
-        <v>700</v>
       </c>
       <c r="X58" s="3">
         <v>700</v>
       </c>
       <c r="Y58" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z58" s="3">
         <v>800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
@@ -4232,31 +4369,31 @@
         <v>600</v>
       </c>
       <c r="I59" s="3">
+        <v>600</v>
+      </c>
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
-      </c>
-      <c r="N59" s="3">
-        <v>700</v>
       </c>
       <c r="O59" s="3">
         <v>700</v>
       </c>
       <c r="P59" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q59" s="3">
         <v>600</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>700</v>
       </c>
       <c r="R59" s="3">
         <v>700</v>
@@ -4265,7 +4402,7 @@
         <v>700</v>
       </c>
       <c r="T59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="U59" s="3">
         <v>600</v>
@@ -4274,7 +4411,7 @@
         <v>600</v>
       </c>
       <c r="W59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="X59" s="3">
         <v>500</v>
@@ -4283,72 +4420,75 @@
         <v>500</v>
       </c>
       <c r="Z59" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA59" s="3">
         <v>600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2000</v>
-      </c>
-      <c r="T60" s="3">
-        <v>1800</v>
       </c>
       <c r="U60" s="3">
         <v>1800</v>
       </c>
       <c r="V60" s="3">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="W60" s="3">
         <v>1500</v>
@@ -4357,16 +4497,19 @@
         <v>1500</v>
       </c>
       <c r="Y60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Z60" s="3">
         <v>1700</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>1600</v>
       </c>
       <c r="AA60" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -4389,11 +4532,11 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>1100</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -4401,11 +4544,11 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>1100</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4413,22 +4556,22 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>800</v>
       </c>
       <c r="T61" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="U61" s="3">
         <v>700</v>
       </c>
       <c r="V61" s="3">
+        <v>700</v>
+      </c>
+      <c r="W61" s="3">
         <v>800</v>
-      </c>
-      <c r="W61" s="3">
-        <v>700</v>
       </c>
       <c r="X61" s="3">
         <v>700</v>
@@ -4437,13 +4580,16 @@
         <v>700</v>
       </c>
       <c r="Z61" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA61" s="3">
         <v>800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -4472,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
@@ -4481,17 +4627,17 @@
         <v>100</v>
       </c>
       <c r="O62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
@@ -4510,17 +4656,20 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-      <c r="Y62" s="3" t="s">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Z62" s="3">
-        <v>0</v>
-      </c>
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E66" s="3">
         <v>3000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3100</v>
-      </c>
-      <c r="I66" s="3">
-        <v>3200</v>
       </c>
       <c r="J66" s="3">
         <v>3200</v>
       </c>
       <c r="K66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L66" s="3">
         <v>3000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2700</v>
-      </c>
-      <c r="T66" s="3">
-        <v>2500</v>
       </c>
       <c r="U66" s="3">
         <v>2500</v>
       </c>
       <c r="V66" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="W66" s="3">
         <v>2300</v>
       </c>
       <c r="X66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Y66" s="3">
         <v>2200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-24600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-24200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-23800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-23500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-24200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-23900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-23400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-23100</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-22900</v>
       </c>
       <c r="M72" s="3">
         <v>-22900</v>
       </c>
       <c r="N72" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="O72" s="3">
         <v>-22600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-22300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-22200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-22100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-21900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-21500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-21300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-21100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-20800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-20600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-20500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-20400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-20300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-20100</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,70 +5655,73 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-900</v>
       </c>
       <c r="M76" s="3">
         <v>-900</v>
       </c>
       <c r="N76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O76" s="3">
         <v>-800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-600</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-400</v>
       </c>
       <c r="Q76" s="3">
         <v>-400</v>
       </c>
       <c r="R76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S76" s="3">
         <v>-100</v>
       </c>
-      <c r="S76" s="3">
-        <v>100</v>
-      </c>
       <c r="T76" s="3">
+        <v>100</v>
+      </c>
+      <c r="U76" s="3">
         <v>200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>600</v>
-      </c>
-      <c r="W76" s="3">
-        <v>900</v>
       </c>
       <c r="X76" s="3">
         <v>900</v>
@@ -5544,13 +5730,16 @@
         <v>900</v>
       </c>
       <c r="Z76" s="3">
+        <v>900</v>
+      </c>
+      <c r="AA76" s="3">
         <v>1000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
         <v>-400</v>
       </c>
       <c r="F81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-200</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-300</v>
       </c>
       <c r="V81" s="3">
         <v>-300</v>
       </c>
       <c r="W81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="X81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y81" s="3">
         <v>-100</v>
       </c>
       <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5889,10 +6088,13 @@
         <v>0</v>
       </c>
       <c r="AA83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6285,76 +6502,79 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
       <c r="O89" s="3">
+        <v>100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>100</v>
-      </c>
       <c r="Q89" s="3">
         <v>100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>200</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6447,20 +6668,23 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>55</v>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
+      <c r="Z91" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7036,76 +7282,79 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>-100</v>
       </c>
       <c r="G100" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="H100" s="3">
         <v>200</v>
       </c>
       <c r="I100" s="3">
+        <v>200</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>100</v>
       </c>
       <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-100</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7190,13 +7442,13 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -7208,44 +7460,44 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>600</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>100</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
@@ -7253,9 +7505,12 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>ABMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,122 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,43 +791,43 @@
         <v>200</v>
       </c>
       <c r="F8" s="3">
+        <v>200</v>
+      </c>
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>700</v>
-      </c>
-      <c r="O8" s="3">
-        <v>900</v>
       </c>
       <c r="P8" s="3">
         <v>900</v>
       </c>
       <c r="Q8" s="3">
+        <v>900</v>
+      </c>
+      <c r="R8" s="3">
         <v>1000</v>
-      </c>
-      <c r="R8" s="3">
-        <v>900</v>
       </c>
       <c r="S8" s="3">
         <v>900</v>
@@ -833,31 +836,34 @@
         <v>900</v>
       </c>
       <c r="U8" s="3">
+        <v>900</v>
+      </c>
+      <c r="V8" s="3">
         <v>1100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1400</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>1300</v>
       </c>
       <c r="Z8" s="3">
         <v>1300</v>
       </c>
       <c r="AA8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AB8" s="3">
         <v>1200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -865,13 +871,13 @@
         <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
       </c>
       <c r="G9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H9" s="3">
         <v>400</v>
@@ -880,64 +886,67 @@
         <v>400</v>
       </c>
       <c r="J9" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K9" s="3">
         <v>500</v>
       </c>
       <c r="L9" s="3">
+        <v>500</v>
+      </c>
+      <c r="M9" s="3">
         <v>600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -945,79 +954,82 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
       <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
       <c r="J10" s="3">
         <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>300</v>
       </c>
       <c r="M10" s="3">
+        <v>300</v>
+      </c>
+      <c r="N10" s="3">
         <v>600</v>
-      </c>
-      <c r="N10" s="3">
-        <v>200</v>
       </c>
       <c r="O10" s="3">
         <v>200</v>
       </c>
       <c r="P10" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q10" s="3">
         <v>400</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>300</v>
       </c>
       <c r="R10" s="3">
         <v>300</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T10" s="3">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
         <v>400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>500</v>
-      </c>
-      <c r="V10" s="3">
-        <v>300</v>
       </c>
       <c r="W10" s="3">
         <v>300</v>
       </c>
       <c r="X10" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="Y10" s="3">
         <v>600</v>
       </c>
       <c r="Z10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AA10" s="3">
         <v>500</v>
       </c>
       <c r="AB10" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1124,10 +1137,13 @@
         <v>0</v>
       </c>
       <c r="AB12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,28 +1222,31 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>55</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="3">
-        <v>100</v>
+      <c r="G14" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="H14" s="3">
+        <v>100</v>
+      </c>
+      <c r="I14" s="3">
         <v>-300</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>55</v>
@@ -1244,8 +1263,8 @@
       <c r="N14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1286,8 +1305,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,8 +1418,9 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1405,76 +1431,79 @@
         <v>500</v>
       </c>
       <c r="F17" s="3">
+        <v>500</v>
+      </c>
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1100</v>
       </c>
       <c r="R17" s="3">
         <v>1100</v>
       </c>
       <c r="S17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T17" s="3">
         <v>1200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1100</v>
-      </c>
-      <c r="V17" s="3">
-        <v>1200</v>
       </c>
       <c r="W17" s="3">
         <v>1200</v>
       </c>
       <c r="X17" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="Y17" s="3">
         <v>1300</v>
       </c>
       <c r="Z17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AA17" s="3">
         <v>1400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1491,61 +1520,61 @@
         <v>-300</v>
       </c>
       <c r="H18" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
       </c>
       <c r="M18" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
       <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
-        <v>100</v>
-      </c>
       <c r="Y18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="3">
         <v>-100</v>
@@ -1553,8 +1582,11 @@
       <c r="AB18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1583,8 +1615,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1598,16 +1631,16 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
-        <v>100</v>
-      </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1628,10 +1661,10 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1643,10 +1676,10 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
@@ -1661,18 +1694,21 @@
         <v>0</v>
       </c>
       <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-300</v>
       </c>
       <c r="F21" s="3">
         <v>-300</v>
@@ -1681,55 +1717,55 @@
         <v>-300</v>
       </c>
       <c r="H21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I21" s="3">
         <v>700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-200</v>
       </c>
       <c r="L21" s="3">
         <v>-200</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
       <c r="V21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="W21" s="3">
         <v>-200</v>
       </c>
       <c r="X21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Y21" s="3">
         <v>0</v>
@@ -1738,24 +1774,27 @@
         <v>0</v>
       </c>
       <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1779,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
@@ -1821,10 +1860,13 @@
         <v>100</v>
       </c>
       <c r="AB22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1832,64 +1874,64 @@
         <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F23" s="3">
         <v>-400</v>
       </c>
       <c r="G23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-200</v>
       </c>
       <c r="L23" s="3">
         <v>-200</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
       <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-300</v>
       </c>
       <c r="W23" s="3">
         <v>-300</v>
       </c>
       <c r="X23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="Y23" s="3">
         <v>-100</v>
@@ -1898,13 +1940,16 @@
         <v>-100</v>
       </c>
       <c r="AA23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1983,8 +2028,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2063,8 +2111,11 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
@@ -2072,79 +2123,82 @@
         <v>-300</v>
       </c>
       <c r="E26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F26" s="3">
         <v>-400</v>
       </c>
       <c r="G26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-200</v>
       </c>
       <c r="L26" s="3">
         <v>-200</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
       <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-300</v>
       </c>
       <c r="W26" s="3">
         <v>-300</v>
       </c>
       <c r="X26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="Y26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="3">
         <v>-100</v>
       </c>
       <c r="AA26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
@@ -2152,79 +2206,82 @@
         <v>-300</v>
       </c>
       <c r="E27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F27" s="3">
         <v>-400</v>
       </c>
       <c r="G27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-200</v>
       </c>
       <c r="L27" s="3">
         <v>-200</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
       <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-300</v>
       </c>
       <c r="W27" s="3">
         <v>-300</v>
       </c>
       <c r="X27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="Y27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="3">
         <v>-100</v>
       </c>
       <c r="AA27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2543,8 +2609,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2558,17 +2627,17 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2588,11 +2657,11 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2603,11 +2672,11 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
@@ -2621,10 +2690,13 @@
         <v>0</v>
       </c>
       <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
@@ -2632,79 +2704,82 @@
         <v>-300</v>
       </c>
       <c r="E33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F33" s="3">
         <v>-400</v>
       </c>
       <c r="G33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-200</v>
       </c>
       <c r="L33" s="3">
         <v>-200</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
       <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-300</v>
       </c>
       <c r="W33" s="3">
         <v>-300</v>
       </c>
       <c r="X33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="Y33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="3">
         <v>-100</v>
       </c>
       <c r="AA33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2783,8 +2858,11 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
@@ -2792,164 +2870,170 @@
         <v>-300</v>
       </c>
       <c r="E35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F35" s="3">
         <v>-400</v>
       </c>
       <c r="G35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-200</v>
       </c>
       <c r="L35" s="3">
         <v>-200</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
       <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-300</v>
       </c>
       <c r="W35" s="3">
         <v>-300</v>
       </c>
       <c r="X35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="Y35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="3">
         <v>-100</v>
       </c>
       <c r="AA35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3008,8 +3093,9 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
@@ -3023,16 +3109,16 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
@@ -3041,19 +3127,19 @@
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
@@ -3071,25 +3157,28 @@
         <v>100</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
         <v>200</v>
       </c>
-      <c r="Y41" s="3">
-        <v>100</v>
-      </c>
       <c r="Z41" s="3">
         <v>100</v>
       </c>
       <c r="AA41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3168,34 +3257,37 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
-      </c>
-      <c r="K43" s="3">
-        <v>400</v>
       </c>
       <c r="L43" s="3">
         <v>400</v>
@@ -3210,16 +3302,16 @@
         <v>400</v>
       </c>
       <c r="P43" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q43" s="3">
         <v>500</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>400</v>
       </c>
       <c r="R43" s="3">
         <v>400</v>
       </c>
       <c r="S43" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T43" s="3">
         <v>500</v>
@@ -3228,28 +3320,31 @@
         <v>500</v>
       </c>
       <c r="V43" s="3">
+        <v>500</v>
+      </c>
+      <c r="W43" s="3">
         <v>400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>300</v>
-      </c>
-      <c r="X43" s="3">
-        <v>500</v>
       </c>
       <c r="Y43" s="3">
         <v>500</v>
       </c>
       <c r="Z43" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AA43" s="3">
         <v>600</v>
       </c>
       <c r="AB43" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -3269,7 +3364,7 @@
         <v>400</v>
       </c>
       <c r="I44" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J44" s="3">
         <v>500</v>
@@ -3278,40 +3373,40 @@
         <v>500</v>
       </c>
       <c r="L44" s="3">
+        <v>500</v>
+      </c>
+      <c r="M44" s="3">
         <v>600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>800</v>
-      </c>
-      <c r="R44" s="3">
-        <v>1000</v>
       </c>
       <c r="S44" s="3">
         <v>1000</v>
       </c>
       <c r="T44" s="3">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="U44" s="3">
         <v>1300</v>
       </c>
       <c r="V44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W44" s="3">
         <v>1400</v>
-      </c>
-      <c r="W44" s="3">
-        <v>1500</v>
       </c>
       <c r="X44" s="3">
         <v>1500</v>
@@ -3323,21 +3418,24 @@
         <v>1500</v>
       </c>
       <c r="AA44" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="AB44" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -3361,14 +3459,14 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
@@ -3382,22 +3480,22 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
       </c>
       <c r="X45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="3">
         <v>100</v>
@@ -3408,88 +3506,94 @@
       <c r="AB45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E46" s="3">
         <v>700</v>
       </c>
       <c r="F46" s="3">
+        <v>700</v>
+      </c>
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1600</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1000</v>
       </c>
       <c r="J46" s="3">
         <v>1000</v>
       </c>
       <c r="K46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1600</v>
-      </c>
-      <c r="T46" s="3">
-        <v>1900</v>
       </c>
       <c r="U46" s="3">
         <v>1900</v>
       </c>
       <c r="V46" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="W46" s="3">
         <v>2000</v>
       </c>
       <c r="X46" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="Y46" s="3">
         <v>2200</v>
       </c>
       <c r="Z46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AA46" s="3">
         <v>2300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3568,8 +3672,11 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -3589,7 +3696,7 @@
         <v>500</v>
       </c>
       <c r="I48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J48" s="3">
         <v>600</v>
@@ -3601,7 +3708,7 @@
         <v>600</v>
       </c>
       <c r="M48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N48" s="3">
         <v>700</v>
@@ -3625,7 +3732,7 @@
         <v>700</v>
       </c>
       <c r="U48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="V48" s="3">
         <v>800</v>
@@ -3648,8 +3755,11 @@
       <c r="AB48" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3662,11 +3772,11 @@
       <c r="F49" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
+      <c r="G49" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="H49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>100</v>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3888,8 +4004,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -3957,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="3">
         <v>100</v>
@@ -3968,8 +4087,11 @@
       <c r="AB52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1800</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1900</v>
       </c>
       <c r="L54" s="3">
         <v>1900</v>
       </c>
       <c r="M54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N54" s="3">
         <v>2300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2100</v>
-      </c>
-      <c r="P54" s="3">
-        <v>2200</v>
       </c>
       <c r="Q54" s="3">
         <v>2200</v>
       </c>
       <c r="R54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S54" s="3">
         <v>2300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2500</v>
-      </c>
-      <c r="T54" s="3">
-        <v>2800</v>
       </c>
       <c r="U54" s="3">
         <v>2800</v>
       </c>
       <c r="V54" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="W54" s="3">
         <v>2900</v>
       </c>
       <c r="X54" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="Y54" s="3">
         <v>3100</v>
       </c>
       <c r="Z54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="AA54" s="3">
         <v>3300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4188,28 +4317,29 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
-      </c>
-      <c r="G57" s="3">
-        <v>700</v>
       </c>
       <c r="H57" s="3">
         <v>700</v>
       </c>
       <c r="I57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J57" s="3">
         <v>600</v>
@@ -4224,37 +4354,37 @@
         <v>600</v>
       </c>
       <c r="N57" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O57" s="3">
         <v>700</v>
       </c>
       <c r="P57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q57" s="3">
         <v>600</v>
       </c>
       <c r="R57" s="3">
+        <v>600</v>
+      </c>
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
-      </c>
-      <c r="V57" s="3">
-        <v>400</v>
       </c>
       <c r="W57" s="3">
         <v>400</v>
       </c>
       <c r="X57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Y57" s="3">
         <v>300</v>
@@ -4268,16 +4398,19 @@
       <c r="AB57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E58" s="3">
         <v>1600</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1500</v>
       </c>
       <c r="F58" s="3">
         <v>1500</v>
@@ -4286,70 +4419,73 @@
         <v>1500</v>
       </c>
       <c r="H58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I58" s="3">
         <v>1700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1900</v>
       </c>
       <c r="J58" s="3">
         <v>1900</v>
       </c>
       <c r="K58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L58" s="3">
         <v>700</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1700</v>
       </c>
       <c r="M58" s="3">
         <v>1700</v>
       </c>
       <c r="N58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O58" s="3">
         <v>1400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>1400</v>
       </c>
       <c r="R58" s="3">
         <v>1400</v>
       </c>
       <c r="S58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T58" s="3">
         <v>700</v>
-      </c>
-      <c r="T58" s="3">
-        <v>800</v>
       </c>
       <c r="U58" s="3">
         <v>800</v>
       </c>
       <c r="V58" s="3">
+        <v>800</v>
+      </c>
+      <c r="W58" s="3">
         <v>700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>500</v>
-      </c>
-      <c r="X58" s="3">
-        <v>700</v>
       </c>
       <c r="Y58" s="3">
         <v>700</v>
       </c>
       <c r="Z58" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA58" s="3">
         <v>800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>700</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
@@ -4372,31 +4508,31 @@
         <v>600</v>
       </c>
       <c r="J59" s="3">
+        <v>600</v>
+      </c>
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
-      </c>
-      <c r="O59" s="3">
-        <v>700</v>
       </c>
       <c r="P59" s="3">
         <v>700</v>
       </c>
       <c r="Q59" s="3">
+        <v>700</v>
+      </c>
+      <c r="R59" s="3">
         <v>600</v>
-      </c>
-      <c r="R59" s="3">
-        <v>700</v>
       </c>
       <c r="S59" s="3">
         <v>700</v>
@@ -4405,7 +4541,7 @@
         <v>700</v>
       </c>
       <c r="U59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="V59" s="3">
         <v>600</v>
@@ -4414,7 +4550,7 @@
         <v>600</v>
       </c>
       <c r="X59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Y59" s="3">
         <v>500</v>
@@ -4423,75 +4559,78 @@
         <v>500</v>
       </c>
       <c r="AA59" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB59" s="3">
         <v>600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E60" s="3">
         <v>3200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2000</v>
-      </c>
-      <c r="U60" s="3">
-        <v>1800</v>
       </c>
       <c r="V60" s="3">
         <v>1800</v>
       </c>
       <c r="W60" s="3">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="X60" s="3">
         <v>1500</v>
@@ -4500,16 +4639,19 @@
         <v>1500</v>
       </c>
       <c r="Z60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AA60" s="3">
         <v>1700</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>1600</v>
       </c>
       <c r="AB60" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -4535,11 +4677,11 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>1100</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -4547,11 +4689,11 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>1100</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4559,22 +4701,22 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>800</v>
       </c>
       <c r="U61" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="V61" s="3">
         <v>700</v>
       </c>
       <c r="W61" s="3">
+        <v>700</v>
+      </c>
+      <c r="X61" s="3">
         <v>800</v>
-      </c>
-      <c r="X61" s="3">
-        <v>700</v>
       </c>
       <c r="Y61" s="3">
         <v>700</v>
@@ -4583,13 +4725,16 @@
         <v>700</v>
       </c>
       <c r="AA61" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB61" s="3">
         <v>800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -4621,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
@@ -4630,17 +4775,17 @@
         <v>100</v>
       </c>
       <c r="P62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
@@ -4659,17 +4804,20 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-      <c r="Z62" s="3" t="s">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AA62" s="3">
-        <v>0</v>
-      </c>
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3100</v>
-      </c>
-      <c r="J66" s="3">
-        <v>3200</v>
       </c>
       <c r="K66" s="3">
         <v>3200</v>
       </c>
       <c r="L66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M66" s="3">
         <v>3000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2700</v>
-      </c>
-      <c r="U66" s="3">
-        <v>2500</v>
       </c>
       <c r="V66" s="3">
         <v>2500</v>
       </c>
       <c r="W66" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X66" s="3">
         <v>2300</v>
       </c>
       <c r="Y66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Z66" s="3">
         <v>2200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-24900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-24600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-24200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-23800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-23500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-24200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-23900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-23400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-23100</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-22900</v>
       </c>
       <c r="N72" s="3">
         <v>-22900</v>
       </c>
       <c r="O72" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="P72" s="3">
         <v>-22600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-22300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-22200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-22100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-21900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-21500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-21300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-21100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-20800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-20600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-20500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-20400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-20300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-20100</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,73 +5840,76 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-900</v>
       </c>
       <c r="N76" s="3">
         <v>-900</v>
       </c>
       <c r="O76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P76" s="3">
         <v>-800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-400</v>
       </c>
       <c r="R76" s="3">
         <v>-400</v>
       </c>
       <c r="S76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T76" s="3">
         <v>-100</v>
       </c>
-      <c r="T76" s="3">
-        <v>100</v>
-      </c>
       <c r="U76" s="3">
+        <v>100</v>
+      </c>
+      <c r="V76" s="3">
         <v>200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>600</v>
-      </c>
-      <c r="X76" s="3">
-        <v>900</v>
       </c>
       <c r="Y76" s="3">
         <v>900</v>
@@ -5733,13 +5918,16 @@
         <v>900</v>
       </c>
       <c r="AA76" s="3">
+        <v>900</v>
+      </c>
+      <c r="AB76" s="3">
         <v>1000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,93 +6006,99 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
@@ -5912,79 +6106,82 @@
         <v>-300</v>
       </c>
       <c r="E81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F81" s="3">
         <v>-400</v>
       </c>
       <c r="G81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-200</v>
       </c>
       <c r="L81" s="3">
         <v>-200</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
       <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-300</v>
       </c>
       <c r="W81" s="3">
         <v>-300</v>
       </c>
       <c r="X81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="Y81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z81" s="3">
         <v>-100</v>
       </c>
       <c r="AA81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6091,10 +6289,13 @@
         <v>0</v>
       </c>
       <c r="AB83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3">
-        <v>100</v>
-      </c>
       <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>100</v>
-      </c>
       <c r="R89" s="3">
         <v>100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
         <v>-100</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X89" s="3">
         <v>0</v>
       </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>200</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
       <c r="AA89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6822,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6671,20 +6891,23 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>55</v>
+      <c r="Y91" s="3">
+        <v>0</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
+      <c r="AA91" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7069,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6923,8 +7152,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7515,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>-100</v>
       </c>
       <c r="H100" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="I100" s="3">
         <v>200</v>
       </c>
       <c r="J100" s="3">
+        <v>200</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>100</v>
       </c>
       <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-100</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7681,11 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7445,13 +7696,13 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -7463,44 +7714,44 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>600</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>100</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
@@ -7508,9 +7759,12 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>ABMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,126 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -794,43 +798,43 @@
         <v>200</v>
       </c>
       <c r="G8" s="3">
+        <v>200</v>
+      </c>
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
-      </c>
-      <c r="P8" s="3">
-        <v>900</v>
       </c>
       <c r="Q8" s="3">
         <v>900</v>
       </c>
       <c r="R8" s="3">
+        <v>900</v>
+      </c>
+      <c r="S8" s="3">
         <v>1000</v>
-      </c>
-      <c r="S8" s="3">
-        <v>900</v>
       </c>
       <c r="T8" s="3">
         <v>900</v>
@@ -839,48 +843,51 @@
         <v>900</v>
       </c>
       <c r="V8" s="3">
+        <v>900</v>
+      </c>
+      <c r="W8" s="3">
         <v>1100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1400</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>1300</v>
       </c>
       <c r="AA8" s="3">
         <v>1300</v>
       </c>
       <c r="AB8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AC8" s="3">
         <v>1200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
       </c>
       <c r="F9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G9" s="3">
         <v>300</v>
       </c>
       <c r="H9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I9" s="3">
         <v>400</v>
@@ -889,147 +896,153 @@
         <v>400</v>
       </c>
       <c r="K9" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L9" s="3">
         <v>500</v>
       </c>
       <c r="M9" s="3">
+        <v>500</v>
+      </c>
+      <c r="N9" s="3">
         <v>600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
       <c r="H10" s="3">
         <v>100</v>
       </c>
       <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
         <v>300</v>
       </c>
       <c r="N10" s="3">
+        <v>300</v>
+      </c>
+      <c r="O10" s="3">
         <v>600</v>
-      </c>
-      <c r="O10" s="3">
-        <v>200</v>
       </c>
       <c r="P10" s="3">
         <v>200</v>
       </c>
       <c r="Q10" s="3">
+        <v>200</v>
+      </c>
+      <c r="R10" s="3">
         <v>400</v>
-      </c>
-      <c r="R10" s="3">
-        <v>300</v>
       </c>
       <c r="S10" s="3">
         <v>300</v>
       </c>
       <c r="T10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
         <v>400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>500</v>
-      </c>
-      <c r="W10" s="3">
-        <v>300</v>
       </c>
       <c r="X10" s="3">
         <v>300</v>
       </c>
       <c r="Y10" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="Z10" s="3">
         <v>600</v>
       </c>
       <c r="AA10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AB10" s="3">
         <v>500</v>
       </c>
       <c r="AC10" s="3">
+        <v>500</v>
+      </c>
+      <c r="AD10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1140,10 +1154,13 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,31 +1242,34 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>55</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="3">
-        <v>100</v>
+      <c r="H14" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="I14" s="3">
+        <v>100</v>
+      </c>
+      <c r="J14" s="3">
         <v>-300</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>55</v>
@@ -1266,8 +1286,8 @@
       <c r="O14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1308,8 +1328,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,13 +1445,14 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
         <v>500</v>
@@ -1434,81 +1461,84 @@
         <v>500</v>
       </c>
       <c r="G17" s="3">
+        <v>500</v>
+      </c>
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1100</v>
       </c>
       <c r="S17" s="3">
         <v>1100</v>
       </c>
       <c r="T17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U17" s="3">
         <v>1200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1100</v>
-      </c>
-      <c r="W17" s="3">
-        <v>1200</v>
       </c>
       <c r="X17" s="3">
         <v>1200</v>
       </c>
       <c r="Y17" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="Z17" s="3">
         <v>1300</v>
       </c>
       <c r="AA17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AB17" s="3">
         <v>1400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E18" s="3">
         <v>-300</v>
@@ -1523,61 +1553,61 @@
         <v>-300</v>
       </c>
       <c r="I18" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-200</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
       <c r="N18" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="O18" s="3">
+        <v>100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
       <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3">
-        <v>100</v>
-      </c>
       <c r="Z18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="3">
         <v>-100</v>
@@ -1585,8 +1615,11 @@
       <c r="AC18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1616,13 +1649,14 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1634,16 +1668,16 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
-        <v>100</v>
-      </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1664,10 +1698,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
@@ -1679,10 +1713,10 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
@@ -1697,21 +1731,24 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-300</v>
       </c>
       <c r="G21" s="3">
         <v>-300</v>
@@ -1720,55 +1757,55 @@
         <v>-300</v>
       </c>
       <c r="I21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J21" s="3">
         <v>700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-200</v>
       </c>
       <c r="M21" s="3">
         <v>-200</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
       <c r="W21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="X21" s="3">
         <v>-200</v>
       </c>
       <c r="Y21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Z21" s="3">
         <v>0</v>
@@ -1777,13 +1814,16 @@
         <v>0</v>
       </c>
       <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1791,13 +1831,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1821,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
@@ -1863,78 +1903,81 @@
         <v>100</v>
       </c>
       <c r="AC22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-300</v>
+        <v>1900</v>
       </c>
       <c r="E23" s="3">
         <v>-300</v>
       </c>
       <c r="F23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="G23" s="3">
         <v>-400</v>
       </c>
       <c r="H23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-200</v>
       </c>
       <c r="M23" s="3">
         <v>-200</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
       </c>
       <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-300</v>
       </c>
       <c r="X23" s="3">
         <v>-300</v>
       </c>
       <c r="Y23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="Z23" s="3">
         <v>-100</v>
@@ -1943,13 +1986,16 @@
         <v>-100</v>
       </c>
       <c r="AB23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -2031,8 +2077,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-300</v>
+        <v>1900</v>
       </c>
       <c r="E26" s="3">
         <v>-300</v>
       </c>
       <c r="F26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="G26" s="3">
         <v>-400</v>
       </c>
       <c r="H26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-200</v>
       </c>
       <c r="M26" s="3">
         <v>-200</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
       </c>
       <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-300</v>
       </c>
       <c r="X26" s="3">
         <v>-300</v>
       </c>
       <c r="Y26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="Z26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="3">
         <v>-100</v>
       </c>
       <c r="AB26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-300</v>
+        <v>1900</v>
       </c>
       <c r="E27" s="3">
         <v>-300</v>
       </c>
       <c r="F27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="G27" s="3">
         <v>-400</v>
       </c>
       <c r="H27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-200</v>
       </c>
       <c r="M27" s="3">
         <v>-200</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-300</v>
       </c>
       <c r="X27" s="3">
         <v>-300</v>
       </c>
       <c r="Y27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="Z27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="3">
         <v>-100</v>
       </c>
       <c r="AB27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2612,13 +2679,16 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2630,17 +2700,17 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2660,11 +2730,11 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2675,11 +2745,11 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
@@ -2693,93 +2763,99 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-300</v>
+        <v>1900</v>
       </c>
       <c r="E33" s="3">
         <v>-300</v>
       </c>
       <c r="F33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="G33" s="3">
         <v>-400</v>
       </c>
       <c r="H33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-200</v>
       </c>
       <c r="M33" s="3">
         <v>-200</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
       </c>
       <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-300</v>
       </c>
       <c r="X33" s="3">
         <v>-300</v>
       </c>
       <c r="Y33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="Z33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="3">
         <v>-100</v>
       </c>
       <c r="AB33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-300</v>
+        <v>1900</v>
       </c>
       <c r="E35" s="3">
         <v>-300</v>
       </c>
       <c r="F35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="G35" s="3">
         <v>-400</v>
       </c>
       <c r="H35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-200</v>
       </c>
       <c r="M35" s="3">
         <v>-200</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
       </c>
       <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-300</v>
       </c>
       <c r="X35" s="3">
         <v>-300</v>
       </c>
       <c r="Y35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="Z35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="3">
         <v>-100</v>
       </c>
       <c r="AB35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3094,13 +3180,14 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -3112,16 +3199,16 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
@@ -3130,19 +3217,19 @@
         <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
@@ -3160,25 +3247,28 @@
         <v>100</v>
       </c>
       <c r="X41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
         <v>200</v>
       </c>
-      <c r="Z41" s="3">
-        <v>100</v>
-      </c>
       <c r="AA41" s="3">
         <v>100</v>
       </c>
       <c r="AB41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AC41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3260,37 +3350,40 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
-      </c>
-      <c r="L43" s="3">
-        <v>400</v>
       </c>
       <c r="M43" s="3">
         <v>400</v>
@@ -3305,16 +3398,16 @@
         <v>400</v>
       </c>
       <c r="Q43" s="3">
+        <v>400</v>
+      </c>
+      <c r="R43" s="3">
         <v>500</v>
-      </c>
-      <c r="R43" s="3">
-        <v>400</v>
       </c>
       <c r="S43" s="3">
         <v>400</v>
       </c>
       <c r="T43" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="U43" s="3">
         <v>500</v>
@@ -3323,33 +3416,36 @@
         <v>500</v>
       </c>
       <c r="W43" s="3">
+        <v>500</v>
+      </c>
+      <c r="X43" s="3">
         <v>400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>300</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>500</v>
       </c>
       <c r="Z43" s="3">
         <v>500</v>
       </c>
       <c r="AA43" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AB43" s="3">
         <v>600</v>
       </c>
       <c r="AC43" s="3">
+        <v>600</v>
+      </c>
+      <c r="AD43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
         <v>400</v>
@@ -3367,7 +3463,7 @@
         <v>400</v>
       </c>
       <c r="J44" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K44" s="3">
         <v>500</v>
@@ -3376,40 +3472,40 @@
         <v>500</v>
       </c>
       <c r="M44" s="3">
+        <v>500</v>
+      </c>
+      <c r="N44" s="3">
         <v>600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>800</v>
-      </c>
-      <c r="S44" s="3">
-        <v>1000</v>
       </c>
       <c r="T44" s="3">
         <v>1000</v>
       </c>
       <c r="U44" s="3">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="V44" s="3">
         <v>1300</v>
       </c>
       <c r="W44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X44" s="3">
         <v>1400</v>
-      </c>
-      <c r="X44" s="3">
-        <v>1500</v>
       </c>
       <c r="Y44" s="3">
         <v>1500</v>
@@ -3421,24 +3517,27 @@
         <v>1500</v>
       </c>
       <c r="AB44" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="AC44" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -3462,14 +3561,14 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
@@ -3483,22 +3582,22 @@
         <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
       </c>
       <c r="Y45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="3">
         <v>100</v>
@@ -3509,91 +3608,97 @@
       <c r="AC45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
         <v>800</v>
-      </c>
-      <c r="E46" s="3">
-        <v>700</v>
       </c>
       <c r="F46" s="3">
         <v>700</v>
       </c>
       <c r="G46" s="3">
+        <v>700</v>
+      </c>
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1600</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1000</v>
       </c>
       <c r="K46" s="3">
         <v>1000</v>
       </c>
       <c r="L46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M46" s="3">
         <v>1200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1600</v>
-      </c>
-      <c r="U46" s="3">
-        <v>1900</v>
       </c>
       <c r="V46" s="3">
         <v>1900</v>
       </c>
       <c r="W46" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="X46" s="3">
         <v>2000</v>
       </c>
       <c r="Y46" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="Z46" s="3">
         <v>2200</v>
       </c>
       <c r="AA46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AB46" s="3">
         <v>2300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3675,13 +3780,16 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>500</v>
@@ -3699,7 +3807,7 @@
         <v>500</v>
       </c>
       <c r="J48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K48" s="3">
         <v>600</v>
@@ -3711,7 +3819,7 @@
         <v>600</v>
       </c>
       <c r="N48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O48" s="3">
         <v>700</v>
@@ -3735,7 +3843,7 @@
         <v>700</v>
       </c>
       <c r="V48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="W48" s="3">
         <v>800</v>
@@ -3758,8 +3866,11 @@
       <c r="AC48" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3775,11 +3886,11 @@
       <c r="G49" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
+      <c r="H49" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="I49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>100</v>
@@ -3841,8 +3952,11 @@
       <c r="AC49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4007,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -4079,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="Z52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA52" s="3">
         <v>100</v>
@@ -4090,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1800</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1900</v>
       </c>
       <c r="M54" s="3">
         <v>1900</v>
       </c>
       <c r="N54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O54" s="3">
         <v>2300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2100</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>2200</v>
       </c>
       <c r="R54" s="3">
         <v>2200</v>
       </c>
       <c r="S54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T54" s="3">
         <v>2300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2500</v>
-      </c>
-      <c r="U54" s="3">
-        <v>2800</v>
       </c>
       <c r="V54" s="3">
         <v>2800</v>
       </c>
       <c r="W54" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="X54" s="3">
         <v>2900</v>
       </c>
       <c r="Y54" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="Z54" s="3">
         <v>3100</v>
       </c>
       <c r="AA54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="AB54" s="3">
         <v>3300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>3400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4318,31 +4448,32 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
-      </c>
-      <c r="H57" s="3">
-        <v>700</v>
       </c>
       <c r="I57" s="3">
         <v>700</v>
       </c>
       <c r="J57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K57" s="3">
         <v>600</v>
@@ -4357,37 +4488,37 @@
         <v>600</v>
       </c>
       <c r="O57" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="P57" s="3">
         <v>700</v>
       </c>
       <c r="Q57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="R57" s="3">
         <v>600</v>
       </c>
       <c r="S57" s="3">
+        <v>600</v>
+      </c>
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>300</v>
-      </c>
-      <c r="W57" s="3">
-        <v>400</v>
       </c>
       <c r="X57" s="3">
         <v>400</v>
       </c>
       <c r="Y57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Z57" s="3">
         <v>300</v>
@@ -4401,19 +4532,22 @@
       <c r="AC57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
         <v>2200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1500</v>
       </c>
       <c r="G58" s="3">
         <v>1500</v>
@@ -4422,75 +4556,78 @@
         <v>1500</v>
       </c>
       <c r="I58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J58" s="3">
         <v>1700</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1900</v>
       </c>
       <c r="K58" s="3">
         <v>1900</v>
       </c>
       <c r="L58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M58" s="3">
         <v>700</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1700</v>
       </c>
       <c r="N58" s="3">
         <v>1700</v>
       </c>
       <c r="O58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P58" s="3">
         <v>1400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1500</v>
-      </c>
-      <c r="R58" s="3">
-        <v>1400</v>
       </c>
       <c r="S58" s="3">
         <v>1400</v>
       </c>
       <c r="T58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U58" s="3">
         <v>700</v>
-      </c>
-      <c r="U58" s="3">
-        <v>800</v>
       </c>
       <c r="V58" s="3">
         <v>800</v>
       </c>
       <c r="W58" s="3">
+        <v>800</v>
+      </c>
+      <c r="X58" s="3">
         <v>700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>500</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>700</v>
       </c>
       <c r="Z58" s="3">
         <v>700</v>
       </c>
       <c r="AA58" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB58" s="3">
         <v>800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>700</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
         <v>600</v>
@@ -4511,31 +4648,31 @@
         <v>600</v>
       </c>
       <c r="K59" s="3">
+        <v>600</v>
+      </c>
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1500</v>
-      </c>
-      <c r="P59" s="3">
-        <v>700</v>
       </c>
       <c r="Q59" s="3">
         <v>700</v>
       </c>
       <c r="R59" s="3">
+        <v>700</v>
+      </c>
+      <c r="S59" s="3">
         <v>600</v>
-      </c>
-      <c r="S59" s="3">
-        <v>700</v>
       </c>
       <c r="T59" s="3">
         <v>700</v>
@@ -4544,7 +4681,7 @@
         <v>700</v>
       </c>
       <c r="V59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="W59" s="3">
         <v>600</v>
@@ -4553,7 +4690,7 @@
         <v>600</v>
       </c>
       <c r="Y59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Z59" s="3">
         <v>500</v>
@@ -4562,78 +4699,81 @@
         <v>500</v>
       </c>
       <c r="AB59" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC59" s="3">
         <v>600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
         <v>3600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2000</v>
-      </c>
-      <c r="V60" s="3">
-        <v>1800</v>
       </c>
       <c r="W60" s="3">
         <v>1800</v>
       </c>
       <c r="X60" s="3">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="Y60" s="3">
         <v>1500</v>
@@ -4642,16 +4782,19 @@
         <v>1500</v>
       </c>
       <c r="AA60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AB60" s="3">
         <v>1700</v>
-      </c>
-      <c r="AB60" s="3">
-        <v>1600</v>
       </c>
       <c r="AC60" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -4680,11 +4823,11 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>1100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4692,11 +4835,11 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1100</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4704,22 +4847,22 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>800</v>
       </c>
       <c r="V61" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="W61" s="3">
         <v>700</v>
       </c>
       <c r="X61" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y61" s="3">
         <v>800</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>700</v>
       </c>
       <c r="Z61" s="3">
         <v>700</v>
@@ -4728,13 +4871,16 @@
         <v>700</v>
       </c>
       <c r="AB61" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC61" s="3">
         <v>800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -4769,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="N62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
@@ -4778,17 +4924,17 @@
         <v>100</v>
       </c>
       <c r="Q62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="3" t="s">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
       <c r="U62" s="3">
         <v>0</v>
       </c>
@@ -4807,17 +4953,20 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-      <c r="AA62" s="3" t="s">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AB62" s="3">
-        <v>0</v>
-      </c>
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
         <v>3600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>3200</v>
       </c>
       <c r="L66" s="3">
         <v>3200</v>
       </c>
       <c r="M66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N66" s="3">
         <v>3000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2700</v>
-      </c>
-      <c r="V66" s="3">
-        <v>2500</v>
       </c>
       <c r="W66" s="3">
         <v>2500</v>
       </c>
       <c r="X66" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="Y66" s="3">
         <v>2300</v>
       </c>
       <c r="Z66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="AA66" s="3">
         <v>2200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-25200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-24900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-24600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-24200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-23800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-23500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-24200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-23900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-23400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-23100</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-22900</v>
       </c>
       <c r="O72" s="3">
         <v>-22900</v>
       </c>
       <c r="P72" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-22600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-22300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-22200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-22100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-21900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-21500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-21300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-21100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-20800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-20600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-20500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-20400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-20300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-20100</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,76 +6026,79 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-900</v>
       </c>
       <c r="O76" s="3">
         <v>-900</v>
       </c>
       <c r="P76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-600</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-400</v>
       </c>
       <c r="S76" s="3">
         <v>-400</v>
       </c>
       <c r="T76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U76" s="3">
         <v>-100</v>
       </c>
-      <c r="U76" s="3">
-        <v>100</v>
-      </c>
       <c r="V76" s="3">
+        <v>100</v>
+      </c>
+      <c r="W76" s="3">
         <v>200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>600</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>900</v>
       </c>
       <c r="Z76" s="3">
         <v>900</v>
@@ -5921,13 +6107,16 @@
         <v>900</v>
       </c>
       <c r="AB76" s="3">
+        <v>900</v>
+      </c>
+      <c r="AC76" s="3">
         <v>1000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-300</v>
+        <v>1900</v>
       </c>
       <c r="E81" s="3">
         <v>-300</v>
       </c>
       <c r="F81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="G81" s="3">
         <v>-400</v>
       </c>
       <c r="H81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-200</v>
       </c>
       <c r="M81" s="3">
         <v>-200</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
       </c>
       <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-300</v>
       </c>
       <c r="X81" s="3">
         <v>-300</v>
       </c>
       <c r="Y81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="Z81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA81" s="3">
         <v>-100</v>
       </c>
       <c r="AB81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6292,10 +6491,13 @@
         <v>0</v>
       </c>
       <c r="AC83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3">
-        <v>100</v>
-      </c>
       <c r="Q89" s="3">
+        <v>100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>100</v>
-      </c>
       <c r="S89" s="3">
         <v>100</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
       <c r="V89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W89" s="3">
         <v>-100</v>
       </c>
       <c r="X89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y89" s="3">
         <v>0</v>
       </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>200</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
       <c r="AB89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7043,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6894,20 +7115,23 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>55</v>
+      <c r="Z91" s="3">
+        <v>0</v>
       </c>
       <c r="AA91" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AB91" s="3">
-        <v>0</v>
+      <c r="AB91" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,31 +7299,34 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -7155,8 +7385,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,91 +7761,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>-100</v>
       </c>
       <c r="I100" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="J100" s="3">
         <v>200</v>
       </c>
       <c r="K100" s="3">
+        <v>200</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
         <v>100</v>
       </c>
       <c r="X100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-100</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-100</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
       <c r="AB100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,8 +7933,11 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7699,13 +7951,13 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -7717,44 +7969,44 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
       <c r="W102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
         <v>0</v>
       </c>
@@ -7762,9 +8014,12 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>100</v>
       </c>
     </row>
